--- a/2021年_テトリス/02_基本設計書/【基本設計】画面設計書(処理設計)_ログイン画面.xlsx
+++ b/2021年_テトリス/02_基本設計書/【基本設計】画面設計書(処理設計)_ログイン画面.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\growthTeamDocument\2021年_テトリス\02_基本設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iwasuji/document/2021年_テトリス/02_基本設計書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C4D6F6-DFFE-482C-8B66-C95E8D2A373F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92585B58-92DE-CA45-A3C1-523CE46996E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="-120" windowWidth="24330" windowHeight="15990" xr2:uid="{3C8D862C-6145-E842-B259-880AA5F992AF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{3C8D862C-6145-E842-B259-880AA5F992AF}"/>
   </bookViews>
   <sheets>
     <sheet name="ヘッダー" sheetId="2" r:id="rId1"/>
@@ -32,9 +32,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -358,10 +356,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タイトル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログイン認証を行い、ログイン成功ならログイン後トップへ、ログイン失敗ならエラーメッセージをメッセージエリアに表示
 『IDまたは、パスワードに誤りがあります。入力し直してログインしてください。』
 ※パスワードを再設定、パスワードロックは今の所なし</t>
@@ -401,6 +395,13 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻る</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">モドル </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -859,6 +860,51 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -886,50 +932,14 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -947,15 +957,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1032,7 +1033,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s3406"/>
+                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s3416"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1091,7 +1092,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s2377"/>
+                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s2387"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1262,8 +1263,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="219075" y="2647950"/>
-          <a:ext cx="4896108" cy="5477639"/>
+          <a:off x="254000" y="3187700"/>
+          <a:ext cx="5664458" cy="6423789"/>
           <a:chOff x="219075" y="2647950"/>
           <a:chExt cx="4896108" cy="5477639"/>
         </a:xfrm>
@@ -2323,190 +2324,190 @@
       <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:54" ht="15" customHeight="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="62" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="62" t="s">
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="64"/>
-      <c r="AF1" s="62" t="s">
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="62" t="s">
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="63"/>
-      <c r="AN1" s="63"/>
-      <c r="AO1" s="64"/>
-      <c r="AP1" s="62" t="s">
+      <c r="AL1" s="54"/>
+      <c r="AM1" s="54"/>
+      <c r="AN1" s="54"/>
+      <c r="AO1" s="55"/>
+      <c r="AP1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="AQ1" s="63"/>
-      <c r="AR1" s="63"/>
-      <c r="AS1" s="63"/>
-      <c r="AT1" s="64"/>
-      <c r="AU1" s="62" t="s">
+      <c r="AQ1" s="54"/>
+      <c r="AR1" s="54"/>
+      <c r="AS1" s="54"/>
+      <c r="AT1" s="55"/>
+      <c r="AU1" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="AV1" s="63"/>
-      <c r="AW1" s="63"/>
-      <c r="AX1" s="63"/>
-      <c r="AY1" s="64"/>
+      <c r="AV1" s="54"/>
+      <c r="AW1" s="54"/>
+      <c r="AX1" s="54"/>
+      <c r="AY1" s="55"/>
       <c r="BB1" s="3"/>
     </row>
     <row r="2" spans="1:54" ht="15" customHeight="1">
-      <c r="A2" s="56"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="65" t="s">
+      <c r="A2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="65" t="s">
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="71">
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="57"/>
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="62">
         <v>44668</v>
       </c>
-      <c r="AG2" s="72"/>
-      <c r="AH2" s="72"/>
-      <c r="AI2" s="72"/>
-      <c r="AJ2" s="73"/>
-      <c r="AK2" s="65" t="s">
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="AL2" s="66"/>
-      <c r="AM2" s="66"/>
-      <c r="AN2" s="66"/>
-      <c r="AO2" s="67"/>
-      <c r="AP2" s="71"/>
-      <c r="AQ2" s="72"/>
-      <c r="AR2" s="72"/>
-      <c r="AS2" s="72"/>
-      <c r="AT2" s="73"/>
-      <c r="AU2" s="65"/>
-      <c r="AV2" s="66"/>
-      <c r="AW2" s="66"/>
-      <c r="AX2" s="66"/>
-      <c r="AY2" s="67"/>
+      <c r="AL2" s="57"/>
+      <c r="AM2" s="57"/>
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="58"/>
+      <c r="AP2" s="62"/>
+      <c r="AQ2" s="63"/>
+      <c r="AR2" s="63"/>
+      <c r="AS2" s="63"/>
+      <c r="AT2" s="64"/>
+      <c r="AU2" s="56"/>
+      <c r="AV2" s="57"/>
+      <c r="AW2" s="57"/>
+      <c r="AX2" s="57"/>
+      <c r="AY2" s="58"/>
       <c r="BB2" s="3"/>
     </row>
     <row r="3" spans="1:54" ht="15" customHeight="1">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="69"/>
-      <c r="V3" s="69"/>
-      <c r="W3" s="69"/>
-      <c r="X3" s="69"/>
-      <c r="Y3" s="69"/>
-      <c r="Z3" s="69"/>
-      <c r="AA3" s="69"/>
-      <c r="AB3" s="69"/>
-      <c r="AC3" s="69"/>
-      <c r="AD3" s="69"/>
-      <c r="AE3" s="70"/>
-      <c r="AF3" s="74"/>
-      <c r="AG3" s="75"/>
-      <c r="AH3" s="75"/>
-      <c r="AI3" s="75"/>
-      <c r="AJ3" s="76"/>
-      <c r="AK3" s="68"/>
-      <c r="AL3" s="69"/>
-      <c r="AM3" s="69"/>
-      <c r="AN3" s="69"/>
-      <c r="AO3" s="70"/>
-      <c r="AP3" s="74"/>
-      <c r="AQ3" s="75"/>
-      <c r="AR3" s="75"/>
-      <c r="AS3" s="75"/>
-      <c r="AT3" s="76"/>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="69"/>
-      <c r="AW3" s="69"/>
-      <c r="AX3" s="69"/>
-      <c r="AY3" s="70"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="61"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="66"/>
+      <c r="AI3" s="66"/>
+      <c r="AJ3" s="67"/>
+      <c r="AK3" s="59"/>
+      <c r="AL3" s="60"/>
+      <c r="AM3" s="60"/>
+      <c r="AN3" s="60"/>
+      <c r="AO3" s="61"/>
+      <c r="AP3" s="65"/>
+      <c r="AQ3" s="66"/>
+      <c r="AR3" s="66"/>
+      <c r="AS3" s="66"/>
+      <c r="AT3" s="67"/>
+      <c r="AU3" s="59"/>
+      <c r="AV3" s="60"/>
+      <c r="AW3" s="60"/>
+      <c r="AX3" s="60"/>
+      <c r="AY3" s="61"/>
       <c r="BB3" s="3"/>
     </row>
     <row r="4" spans="1:54" ht="15" customHeight="1">
@@ -2523,6 +2524,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="K2:AE3"/>
+    <mergeCell ref="F2:J3"/>
     <mergeCell ref="AF1:AJ1"/>
     <mergeCell ref="AK1:AO1"/>
     <mergeCell ref="AP1:AT1"/>
@@ -2531,11 +2537,6 @@
     <mergeCell ref="AP2:AT3"/>
     <mergeCell ref="AK2:AO3"/>
     <mergeCell ref="AF2:AJ3"/>
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="K2:AE3"/>
-    <mergeCell ref="F2:J3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2549,21 +2550,21 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="6" width="3.28515625" style="3"/>
-    <col min="7" max="7" width="3.28515625" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="3.28515625" style="3"/>
+    <col min="1" max="6" width="3.33203125" style="3"/>
+    <col min="7" max="7" width="3.33203125" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="3.33203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" customFormat="1" ht="12">
+    <row r="1" spans="1:52" customFormat="1" ht="15">
       <c r="A1" s="12"/>
     </row>
-    <row r="2" spans="1:52" customFormat="1" ht="12"/>
-    <row r="3" spans="1:52" customFormat="1" ht="12"/>
-    <row r="4" spans="1:52" customFormat="1" ht="12"/>
-    <row r="5" spans="1:52" customFormat="1" ht="12"/>
-    <row r="7" spans="1:52" ht="14.25">
+    <row r="2" spans="1:52" customFormat="1" ht="15"/>
+    <row r="3" spans="1:52" customFormat="1" ht="15"/>
+    <row r="4" spans="1:52" customFormat="1" ht="15"/>
+    <row r="5" spans="1:52" customFormat="1" ht="15"/>
+    <row r="7" spans="1:52" ht="18">
       <c r="A7" s="7" t="s">
         <v>0</v>
       </c>
@@ -2635,118 +2636,118 @@
         <v>1</v>
       </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="77">
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="80">
         <v>44668</v>
       </c>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="80" t="s">
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="81"/>
-      <c r="N8" s="81"/>
-      <c r="O8" s="81"/>
-      <c r="P8" s="82"/>
-      <c r="Q8" s="80" t="s">
+      <c r="M8" s="84"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="81"/>
-      <c r="S8" s="81"/>
-      <c r="T8" s="81"/>
-      <c r="U8" s="81"/>
-      <c r="V8" s="81"/>
-      <c r="W8" s="81"/>
-      <c r="X8" s="81"/>
-      <c r="Y8" s="81"/>
-      <c r="Z8" s="81"/>
-      <c r="AA8" s="81"/>
-      <c r="AB8" s="81"/>
-      <c r="AC8" s="81"/>
-      <c r="AD8" s="81"/>
-      <c r="AE8" s="81"/>
-      <c r="AF8" s="81"/>
-      <c r="AG8" s="81"/>
-      <c r="AH8" s="81"/>
-      <c r="AI8" s="81"/>
-      <c r="AJ8" s="81"/>
-      <c r="AK8" s="81"/>
-      <c r="AL8" s="82"/>
-      <c r="AM8" s="80"/>
-      <c r="AN8" s="81"/>
-      <c r="AO8" s="81"/>
-      <c r="AP8" s="81"/>
-      <c r="AQ8" s="81"/>
-      <c r="AR8" s="81"/>
-      <c r="AS8" s="81"/>
-      <c r="AT8" s="81"/>
-      <c r="AU8" s="81"/>
-      <c r="AV8" s="81"/>
-      <c r="AW8" s="81"/>
-      <c r="AX8" s="81"/>
-      <c r="AY8" s="81"/>
-      <c r="AZ8" s="82"/>
+      <c r="R8" s="84"/>
+      <c r="S8" s="84"/>
+      <c r="T8" s="84"/>
+      <c r="U8" s="84"/>
+      <c r="V8" s="84"/>
+      <c r="W8" s="84"/>
+      <c r="X8" s="84"/>
+      <c r="Y8" s="84"/>
+      <c r="Z8" s="84"/>
+      <c r="AA8" s="84"/>
+      <c r="AB8" s="84"/>
+      <c r="AC8" s="84"/>
+      <c r="AD8" s="84"/>
+      <c r="AE8" s="84"/>
+      <c r="AF8" s="84"/>
+      <c r="AG8" s="84"/>
+      <c r="AH8" s="84"/>
+      <c r="AI8" s="84"/>
+      <c r="AJ8" s="84"/>
+      <c r="AK8" s="84"/>
+      <c r="AL8" s="85"/>
+      <c r="AM8" s="83"/>
+      <c r="AN8" s="84"/>
+      <c r="AO8" s="84"/>
+      <c r="AP8" s="84"/>
+      <c r="AQ8" s="84"/>
+      <c r="AR8" s="84"/>
+      <c r="AS8" s="84"/>
+      <c r="AT8" s="84"/>
+      <c r="AU8" s="84"/>
+      <c r="AV8" s="84"/>
+      <c r="AW8" s="84"/>
+      <c r="AX8" s="84"/>
+      <c r="AY8" s="84"/>
+      <c r="AZ8" s="85"/>
     </row>
     <row r="9" spans="1:52">
       <c r="A9" s="9"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="82"/>
-      <c r="Q9" s="80"/>
-      <c r="R9" s="81"/>
-      <c r="S9" s="81"/>
-      <c r="T9" s="81"/>
-      <c r="U9" s="81"/>
-      <c r="V9" s="81"/>
-      <c r="W9" s="81"/>
-      <c r="X9" s="81"/>
-      <c r="Y9" s="81"/>
-      <c r="Z9" s="81"/>
-      <c r="AA9" s="81"/>
-      <c r="AB9" s="81"/>
-      <c r="AC9" s="81"/>
-      <c r="AD9" s="81"/>
-      <c r="AE9" s="81"/>
-      <c r="AF9" s="81"/>
-      <c r="AG9" s="81"/>
-      <c r="AH9" s="81"/>
-      <c r="AI9" s="81"/>
-      <c r="AJ9" s="81"/>
-      <c r="AK9" s="81"/>
-      <c r="AL9" s="82"/>
-      <c r="AM9" s="80"/>
-      <c r="AN9" s="81"/>
-      <c r="AO9" s="81"/>
-      <c r="AP9" s="81"/>
-      <c r="AQ9" s="81"/>
-      <c r="AR9" s="81"/>
-      <c r="AS9" s="81"/>
-      <c r="AT9" s="81"/>
-      <c r="AU9" s="81"/>
-      <c r="AV9" s="81"/>
-      <c r="AW9" s="81"/>
-      <c r="AX9" s="81"/>
-      <c r="AY9" s="81"/>
-      <c r="AZ9" s="82"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="84"/>
+      <c r="P9" s="85"/>
+      <c r="Q9" s="83"/>
+      <c r="R9" s="84"/>
+      <c r="S9" s="84"/>
+      <c r="T9" s="84"/>
+      <c r="U9" s="84"/>
+      <c r="V9" s="84"/>
+      <c r="W9" s="84"/>
+      <c r="X9" s="84"/>
+      <c r="Y9" s="84"/>
+      <c r="Z9" s="84"/>
+      <c r="AA9" s="84"/>
+      <c r="AB9" s="84"/>
+      <c r="AC9" s="84"/>
+      <c r="AD9" s="84"/>
+      <c r="AE9" s="84"/>
+      <c r="AF9" s="84"/>
+      <c r="AG9" s="84"/>
+      <c r="AH9" s="84"/>
+      <c r="AI9" s="84"/>
+      <c r="AJ9" s="84"/>
+      <c r="AK9" s="84"/>
+      <c r="AL9" s="85"/>
+      <c r="AM9" s="83"/>
+      <c r="AN9" s="84"/>
+      <c r="AO9" s="84"/>
+      <c r="AP9" s="84"/>
+      <c r="AQ9" s="84"/>
+      <c r="AR9" s="84"/>
+      <c r="AS9" s="84"/>
+      <c r="AT9" s="84"/>
+      <c r="AU9" s="84"/>
+      <c r="AV9" s="84"/>
+      <c r="AW9" s="84"/>
+      <c r="AX9" s="84"/>
+      <c r="AY9" s="84"/>
+      <c r="AZ9" s="85"/>
     </row>
     <row r="10" spans="1:52">
       <c r="A10" s="9" t="str">
@@ -2754,56 +2755,56 @@
         <v/>
       </c>
       <c r="B10" s="10"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="81"/>
-      <c r="N10" s="81"/>
-      <c r="O10" s="81"/>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="80"/>
-      <c r="R10" s="81"/>
-      <c r="S10" s="81"/>
-      <c r="T10" s="81"/>
-      <c r="U10" s="81"/>
-      <c r="V10" s="81"/>
-      <c r="W10" s="81"/>
-      <c r="X10" s="81"/>
-      <c r="Y10" s="81"/>
-      <c r="Z10" s="81"/>
-      <c r="AA10" s="81"/>
-      <c r="AB10" s="81"/>
-      <c r="AC10" s="81"/>
-      <c r="AD10" s="81"/>
-      <c r="AE10" s="81"/>
-      <c r="AF10" s="81"/>
-      <c r="AG10" s="81"/>
-      <c r="AH10" s="81"/>
-      <c r="AI10" s="81"/>
-      <c r="AJ10" s="81"/>
-      <c r="AK10" s="81"/>
-      <c r="AL10" s="82"/>
-      <c r="AM10" s="80"/>
-      <c r="AN10" s="81"/>
-      <c r="AO10" s="81"/>
-      <c r="AP10" s="81"/>
-      <c r="AQ10" s="81"/>
-      <c r="AR10" s="81"/>
-      <c r="AS10" s="81"/>
-      <c r="AT10" s="81"/>
-      <c r="AU10" s="81"/>
-      <c r="AV10" s="81"/>
-      <c r="AW10" s="81"/>
-      <c r="AX10" s="81"/>
-      <c r="AY10" s="81"/>
-      <c r="AZ10" s="82"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="84"/>
+      <c r="N10" s="84"/>
+      <c r="O10" s="84"/>
+      <c r="P10" s="85"/>
+      <c r="Q10" s="83"/>
+      <c r="R10" s="84"/>
+      <c r="S10" s="84"/>
+      <c r="T10" s="84"/>
+      <c r="U10" s="84"/>
+      <c r="V10" s="84"/>
+      <c r="W10" s="84"/>
+      <c r="X10" s="84"/>
+      <c r="Y10" s="84"/>
+      <c r="Z10" s="84"/>
+      <c r="AA10" s="84"/>
+      <c r="AB10" s="84"/>
+      <c r="AC10" s="84"/>
+      <c r="AD10" s="84"/>
+      <c r="AE10" s="84"/>
+      <c r="AF10" s="84"/>
+      <c r="AG10" s="84"/>
+      <c r="AH10" s="84"/>
+      <c r="AI10" s="84"/>
+      <c r="AJ10" s="84"/>
+      <c r="AK10" s="84"/>
+      <c r="AL10" s="85"/>
+      <c r="AM10" s="83"/>
+      <c r="AN10" s="84"/>
+      <c r="AO10" s="84"/>
+      <c r="AP10" s="84"/>
+      <c r="AQ10" s="84"/>
+      <c r="AR10" s="84"/>
+      <c r="AS10" s="84"/>
+      <c r="AT10" s="84"/>
+      <c r="AU10" s="84"/>
+      <c r="AV10" s="84"/>
+      <c r="AW10" s="84"/>
+      <c r="AX10" s="84"/>
+      <c r="AY10" s="84"/>
+      <c r="AZ10" s="85"/>
     </row>
     <row r="11" spans="1:52">
       <c r="A11" s="9" t="str">
@@ -2811,56 +2812,56 @@
         <v/>
       </c>
       <c r="B11" s="10"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="81"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="80"/>
-      <c r="R11" s="81"/>
-      <c r="S11" s="81"/>
-      <c r="T11" s="81"/>
-      <c r="U11" s="81"/>
-      <c r="V11" s="81"/>
-      <c r="W11" s="81"/>
-      <c r="X11" s="81"/>
-      <c r="Y11" s="81"/>
-      <c r="Z11" s="81"/>
-      <c r="AA11" s="81"/>
-      <c r="AB11" s="81"/>
-      <c r="AC11" s="81"/>
-      <c r="AD11" s="81"/>
-      <c r="AE11" s="81"/>
-      <c r="AF11" s="81"/>
-      <c r="AG11" s="81"/>
-      <c r="AH11" s="81"/>
-      <c r="AI11" s="81"/>
-      <c r="AJ11" s="81"/>
-      <c r="AK11" s="81"/>
-      <c r="AL11" s="82"/>
-      <c r="AM11" s="80"/>
-      <c r="AN11" s="81"/>
-      <c r="AO11" s="81"/>
-      <c r="AP11" s="81"/>
-      <c r="AQ11" s="81"/>
-      <c r="AR11" s="81"/>
-      <c r="AS11" s="81"/>
-      <c r="AT11" s="81"/>
-      <c r="AU11" s="81"/>
-      <c r="AV11" s="81"/>
-      <c r="AW11" s="81"/>
-      <c r="AX11" s="81"/>
-      <c r="AY11" s="81"/>
-      <c r="AZ11" s="82"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="84"/>
+      <c r="O11" s="84"/>
+      <c r="P11" s="85"/>
+      <c r="Q11" s="83"/>
+      <c r="R11" s="84"/>
+      <c r="S11" s="84"/>
+      <c r="T11" s="84"/>
+      <c r="U11" s="84"/>
+      <c r="V11" s="84"/>
+      <c r="W11" s="84"/>
+      <c r="X11" s="84"/>
+      <c r="Y11" s="84"/>
+      <c r="Z11" s="84"/>
+      <c r="AA11" s="84"/>
+      <c r="AB11" s="84"/>
+      <c r="AC11" s="84"/>
+      <c r="AD11" s="84"/>
+      <c r="AE11" s="84"/>
+      <c r="AF11" s="84"/>
+      <c r="AG11" s="84"/>
+      <c r="AH11" s="84"/>
+      <c r="AI11" s="84"/>
+      <c r="AJ11" s="84"/>
+      <c r="AK11" s="84"/>
+      <c r="AL11" s="85"/>
+      <c r="AM11" s="83"/>
+      <c r="AN11" s="84"/>
+      <c r="AO11" s="84"/>
+      <c r="AP11" s="84"/>
+      <c r="AQ11" s="84"/>
+      <c r="AR11" s="84"/>
+      <c r="AS11" s="84"/>
+      <c r="AT11" s="84"/>
+      <c r="AU11" s="84"/>
+      <c r="AV11" s="84"/>
+      <c r="AW11" s="84"/>
+      <c r="AX11" s="84"/>
+      <c r="AY11" s="84"/>
+      <c r="AZ11" s="85"/>
     </row>
     <row r="12" spans="1:52">
       <c r="A12" s="9" t="str">
@@ -2868,56 +2869,56 @@
         <v/>
       </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="81"/>
-      <c r="P12" s="82"/>
-      <c r="Q12" s="80"/>
-      <c r="R12" s="81"/>
-      <c r="S12" s="81"/>
-      <c r="T12" s="81"/>
-      <c r="U12" s="81"/>
-      <c r="V12" s="81"/>
-      <c r="W12" s="81"/>
-      <c r="X12" s="81"/>
-      <c r="Y12" s="81"/>
-      <c r="Z12" s="81"/>
-      <c r="AA12" s="81"/>
-      <c r="AB12" s="81"/>
-      <c r="AC12" s="81"/>
-      <c r="AD12" s="81"/>
-      <c r="AE12" s="81"/>
-      <c r="AF12" s="81"/>
-      <c r="AG12" s="81"/>
-      <c r="AH12" s="81"/>
-      <c r="AI12" s="81"/>
-      <c r="AJ12" s="81"/>
-      <c r="AK12" s="81"/>
-      <c r="AL12" s="82"/>
-      <c r="AM12" s="80"/>
-      <c r="AN12" s="81"/>
-      <c r="AO12" s="81"/>
-      <c r="AP12" s="81"/>
-      <c r="AQ12" s="81"/>
-      <c r="AR12" s="81"/>
-      <c r="AS12" s="81"/>
-      <c r="AT12" s="81"/>
-      <c r="AU12" s="81"/>
-      <c r="AV12" s="81"/>
-      <c r="AW12" s="81"/>
-      <c r="AX12" s="81"/>
-      <c r="AY12" s="81"/>
-      <c r="AZ12" s="82"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="84"/>
+      <c r="N12" s="84"/>
+      <c r="O12" s="84"/>
+      <c r="P12" s="85"/>
+      <c r="Q12" s="83"/>
+      <c r="R12" s="84"/>
+      <c r="S12" s="84"/>
+      <c r="T12" s="84"/>
+      <c r="U12" s="84"/>
+      <c r="V12" s="84"/>
+      <c r="W12" s="84"/>
+      <c r="X12" s="84"/>
+      <c r="Y12" s="84"/>
+      <c r="Z12" s="84"/>
+      <c r="AA12" s="84"/>
+      <c r="AB12" s="84"/>
+      <c r="AC12" s="84"/>
+      <c r="AD12" s="84"/>
+      <c r="AE12" s="84"/>
+      <c r="AF12" s="84"/>
+      <c r="AG12" s="84"/>
+      <c r="AH12" s="84"/>
+      <c r="AI12" s="84"/>
+      <c r="AJ12" s="84"/>
+      <c r="AK12" s="84"/>
+      <c r="AL12" s="85"/>
+      <c r="AM12" s="83"/>
+      <c r="AN12" s="84"/>
+      <c r="AO12" s="84"/>
+      <c r="AP12" s="84"/>
+      <c r="AQ12" s="84"/>
+      <c r="AR12" s="84"/>
+      <c r="AS12" s="84"/>
+      <c r="AT12" s="84"/>
+      <c r="AU12" s="84"/>
+      <c r="AV12" s="84"/>
+      <c r="AW12" s="84"/>
+      <c r="AX12" s="84"/>
+      <c r="AY12" s="84"/>
+      <c r="AZ12" s="85"/>
     </row>
     <row r="13" spans="1:52">
       <c r="A13" s="9" t="str">
@@ -2925,56 +2926,56 @@
         <v/>
       </c>
       <c r="B13" s="10"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="81"/>
-      <c r="O13" s="81"/>
-      <c r="P13" s="82"/>
-      <c r="Q13" s="80"/>
-      <c r="R13" s="81"/>
-      <c r="S13" s="81"/>
-      <c r="T13" s="81"/>
-      <c r="U13" s="81"/>
-      <c r="V13" s="81"/>
-      <c r="W13" s="81"/>
-      <c r="X13" s="81"/>
-      <c r="Y13" s="81"/>
-      <c r="Z13" s="81"/>
-      <c r="AA13" s="81"/>
-      <c r="AB13" s="81"/>
-      <c r="AC13" s="81"/>
-      <c r="AD13" s="81"/>
-      <c r="AE13" s="81"/>
-      <c r="AF13" s="81"/>
-      <c r="AG13" s="81"/>
-      <c r="AH13" s="81"/>
-      <c r="AI13" s="81"/>
-      <c r="AJ13" s="81"/>
-      <c r="AK13" s="81"/>
-      <c r="AL13" s="82"/>
-      <c r="AM13" s="80"/>
-      <c r="AN13" s="81"/>
-      <c r="AO13" s="81"/>
-      <c r="AP13" s="81"/>
-      <c r="AQ13" s="81"/>
-      <c r="AR13" s="81"/>
-      <c r="AS13" s="81"/>
-      <c r="AT13" s="81"/>
-      <c r="AU13" s="81"/>
-      <c r="AV13" s="81"/>
-      <c r="AW13" s="81"/>
-      <c r="AX13" s="81"/>
-      <c r="AY13" s="81"/>
-      <c r="AZ13" s="82"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="84"/>
+      <c r="O13" s="84"/>
+      <c r="P13" s="85"/>
+      <c r="Q13" s="83"/>
+      <c r="R13" s="84"/>
+      <c r="S13" s="84"/>
+      <c r="T13" s="84"/>
+      <c r="U13" s="84"/>
+      <c r="V13" s="84"/>
+      <c r="W13" s="84"/>
+      <c r="X13" s="84"/>
+      <c r="Y13" s="84"/>
+      <c r="Z13" s="84"/>
+      <c r="AA13" s="84"/>
+      <c r="AB13" s="84"/>
+      <c r="AC13" s="84"/>
+      <c r="AD13" s="84"/>
+      <c r="AE13" s="84"/>
+      <c r="AF13" s="84"/>
+      <c r="AG13" s="84"/>
+      <c r="AH13" s="84"/>
+      <c r="AI13" s="84"/>
+      <c r="AJ13" s="84"/>
+      <c r="AK13" s="84"/>
+      <c r="AL13" s="85"/>
+      <c r="AM13" s="83"/>
+      <c r="AN13" s="84"/>
+      <c r="AO13" s="84"/>
+      <c r="AP13" s="84"/>
+      <c r="AQ13" s="84"/>
+      <c r="AR13" s="84"/>
+      <c r="AS13" s="84"/>
+      <c r="AT13" s="84"/>
+      <c r="AU13" s="84"/>
+      <c r="AV13" s="84"/>
+      <c r="AW13" s="84"/>
+      <c r="AX13" s="84"/>
+      <c r="AY13" s="84"/>
+      <c r="AZ13" s="85"/>
     </row>
     <row r="14" spans="1:52">
       <c r="A14" s="9" t="str">
@@ -2982,56 +2983,56 @@
         <v/>
       </c>
       <c r="B14" s="10"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="81"/>
-      <c r="P14" s="82"/>
-      <c r="Q14" s="80"/>
-      <c r="R14" s="81"/>
-      <c r="S14" s="81"/>
-      <c r="T14" s="81"/>
-      <c r="U14" s="81"/>
-      <c r="V14" s="81"/>
-      <c r="W14" s="81"/>
-      <c r="X14" s="81"/>
-      <c r="Y14" s="81"/>
-      <c r="Z14" s="81"/>
-      <c r="AA14" s="81"/>
-      <c r="AB14" s="81"/>
-      <c r="AC14" s="81"/>
-      <c r="AD14" s="81"/>
-      <c r="AE14" s="81"/>
-      <c r="AF14" s="81"/>
-      <c r="AG14" s="81"/>
-      <c r="AH14" s="81"/>
-      <c r="AI14" s="81"/>
-      <c r="AJ14" s="81"/>
-      <c r="AK14" s="81"/>
-      <c r="AL14" s="82"/>
-      <c r="AM14" s="80"/>
-      <c r="AN14" s="81"/>
-      <c r="AO14" s="81"/>
-      <c r="AP14" s="81"/>
-      <c r="AQ14" s="81"/>
-      <c r="AR14" s="81"/>
-      <c r="AS14" s="81"/>
-      <c r="AT14" s="81"/>
-      <c r="AU14" s="81"/>
-      <c r="AV14" s="81"/>
-      <c r="AW14" s="81"/>
-      <c r="AX14" s="81"/>
-      <c r="AY14" s="81"/>
-      <c r="AZ14" s="82"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="84"/>
+      <c r="O14" s="84"/>
+      <c r="P14" s="85"/>
+      <c r="Q14" s="83"/>
+      <c r="R14" s="84"/>
+      <c r="S14" s="84"/>
+      <c r="T14" s="84"/>
+      <c r="U14" s="84"/>
+      <c r="V14" s="84"/>
+      <c r="W14" s="84"/>
+      <c r="X14" s="84"/>
+      <c r="Y14" s="84"/>
+      <c r="Z14" s="84"/>
+      <c r="AA14" s="84"/>
+      <c r="AB14" s="84"/>
+      <c r="AC14" s="84"/>
+      <c r="AD14" s="84"/>
+      <c r="AE14" s="84"/>
+      <c r="AF14" s="84"/>
+      <c r="AG14" s="84"/>
+      <c r="AH14" s="84"/>
+      <c r="AI14" s="84"/>
+      <c r="AJ14" s="84"/>
+      <c r="AK14" s="84"/>
+      <c r="AL14" s="85"/>
+      <c r="AM14" s="83"/>
+      <c r="AN14" s="84"/>
+      <c r="AO14" s="84"/>
+      <c r="AP14" s="84"/>
+      <c r="AQ14" s="84"/>
+      <c r="AR14" s="84"/>
+      <c r="AS14" s="84"/>
+      <c r="AT14" s="84"/>
+      <c r="AU14" s="84"/>
+      <c r="AV14" s="84"/>
+      <c r="AW14" s="84"/>
+      <c r="AX14" s="84"/>
+      <c r="AY14" s="84"/>
+      <c r="AZ14" s="85"/>
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="9" t="str">
@@ -3039,56 +3040,56 @@
         <v/>
       </c>
       <c r="B15" s="10"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="79"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="81"/>
-      <c r="N15" s="81"/>
-      <c r="O15" s="81"/>
-      <c r="P15" s="82"/>
-      <c r="Q15" s="80"/>
-      <c r="R15" s="81"/>
-      <c r="S15" s="81"/>
-      <c r="T15" s="81"/>
-      <c r="U15" s="81"/>
-      <c r="V15" s="81"/>
-      <c r="W15" s="81"/>
-      <c r="X15" s="81"/>
-      <c r="Y15" s="81"/>
-      <c r="Z15" s="81"/>
-      <c r="AA15" s="81"/>
-      <c r="AB15" s="81"/>
-      <c r="AC15" s="81"/>
-      <c r="AD15" s="81"/>
-      <c r="AE15" s="81"/>
-      <c r="AF15" s="81"/>
-      <c r="AG15" s="81"/>
-      <c r="AH15" s="81"/>
-      <c r="AI15" s="81"/>
-      <c r="AJ15" s="81"/>
-      <c r="AK15" s="81"/>
-      <c r="AL15" s="82"/>
-      <c r="AM15" s="80"/>
-      <c r="AN15" s="81"/>
-      <c r="AO15" s="81"/>
-      <c r="AP15" s="81"/>
-      <c r="AQ15" s="81"/>
-      <c r="AR15" s="81"/>
-      <c r="AS15" s="81"/>
-      <c r="AT15" s="81"/>
-      <c r="AU15" s="81"/>
-      <c r="AV15" s="81"/>
-      <c r="AW15" s="81"/>
-      <c r="AX15" s="81"/>
-      <c r="AY15" s="81"/>
-      <c r="AZ15" s="82"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="83"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="84"/>
+      <c r="O15" s="84"/>
+      <c r="P15" s="85"/>
+      <c r="Q15" s="83"/>
+      <c r="R15" s="84"/>
+      <c r="S15" s="84"/>
+      <c r="T15" s="84"/>
+      <c r="U15" s="84"/>
+      <c r="V15" s="84"/>
+      <c r="W15" s="84"/>
+      <c r="X15" s="84"/>
+      <c r="Y15" s="84"/>
+      <c r="Z15" s="84"/>
+      <c r="AA15" s="84"/>
+      <c r="AB15" s="84"/>
+      <c r="AC15" s="84"/>
+      <c r="AD15" s="84"/>
+      <c r="AE15" s="84"/>
+      <c r="AF15" s="84"/>
+      <c r="AG15" s="84"/>
+      <c r="AH15" s="84"/>
+      <c r="AI15" s="84"/>
+      <c r="AJ15" s="84"/>
+      <c r="AK15" s="84"/>
+      <c r="AL15" s="85"/>
+      <c r="AM15" s="83"/>
+      <c r="AN15" s="84"/>
+      <c r="AO15" s="84"/>
+      <c r="AP15" s="84"/>
+      <c r="AQ15" s="84"/>
+      <c r="AR15" s="84"/>
+      <c r="AS15" s="84"/>
+      <c r="AT15" s="84"/>
+      <c r="AU15" s="84"/>
+      <c r="AV15" s="84"/>
+      <c r="AW15" s="84"/>
+      <c r="AX15" s="84"/>
+      <c r="AY15" s="84"/>
+      <c r="AZ15" s="85"/>
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="9" t="str">
@@ -3096,56 +3097,56 @@
         <v/>
       </c>
       <c r="B16" s="10"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="79"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="81"/>
-      <c r="O16" s="81"/>
-      <c r="P16" s="82"/>
-      <c r="Q16" s="80"/>
-      <c r="R16" s="81"/>
-      <c r="S16" s="81"/>
-      <c r="T16" s="81"/>
-      <c r="U16" s="81"/>
-      <c r="V16" s="81"/>
-      <c r="W16" s="81"/>
-      <c r="X16" s="81"/>
-      <c r="Y16" s="81"/>
-      <c r="Z16" s="81"/>
-      <c r="AA16" s="81"/>
-      <c r="AB16" s="81"/>
-      <c r="AC16" s="81"/>
-      <c r="AD16" s="81"/>
-      <c r="AE16" s="81"/>
-      <c r="AF16" s="81"/>
-      <c r="AG16" s="81"/>
-      <c r="AH16" s="81"/>
-      <c r="AI16" s="81"/>
-      <c r="AJ16" s="81"/>
-      <c r="AK16" s="81"/>
-      <c r="AL16" s="82"/>
-      <c r="AM16" s="80"/>
-      <c r="AN16" s="81"/>
-      <c r="AO16" s="81"/>
-      <c r="AP16" s="81"/>
-      <c r="AQ16" s="81"/>
-      <c r="AR16" s="81"/>
-      <c r="AS16" s="81"/>
-      <c r="AT16" s="81"/>
-      <c r="AU16" s="81"/>
-      <c r="AV16" s="81"/>
-      <c r="AW16" s="81"/>
-      <c r="AX16" s="81"/>
-      <c r="AY16" s="81"/>
-      <c r="AZ16" s="82"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="83"/>
+      <c r="M16" s="84"/>
+      <c r="N16" s="84"/>
+      <c r="O16" s="84"/>
+      <c r="P16" s="85"/>
+      <c r="Q16" s="83"/>
+      <c r="R16" s="84"/>
+      <c r="S16" s="84"/>
+      <c r="T16" s="84"/>
+      <c r="U16" s="84"/>
+      <c r="V16" s="84"/>
+      <c r="W16" s="84"/>
+      <c r="X16" s="84"/>
+      <c r="Y16" s="84"/>
+      <c r="Z16" s="84"/>
+      <c r="AA16" s="84"/>
+      <c r="AB16" s="84"/>
+      <c r="AC16" s="84"/>
+      <c r="AD16" s="84"/>
+      <c r="AE16" s="84"/>
+      <c r="AF16" s="84"/>
+      <c r="AG16" s="84"/>
+      <c r="AH16" s="84"/>
+      <c r="AI16" s="84"/>
+      <c r="AJ16" s="84"/>
+      <c r="AK16" s="84"/>
+      <c r="AL16" s="85"/>
+      <c r="AM16" s="83"/>
+      <c r="AN16" s="84"/>
+      <c r="AO16" s="84"/>
+      <c r="AP16" s="84"/>
+      <c r="AQ16" s="84"/>
+      <c r="AR16" s="84"/>
+      <c r="AS16" s="84"/>
+      <c r="AT16" s="84"/>
+      <c r="AU16" s="84"/>
+      <c r="AV16" s="84"/>
+      <c r="AW16" s="84"/>
+      <c r="AX16" s="84"/>
+      <c r="AY16" s="84"/>
+      <c r="AZ16" s="85"/>
     </row>
     <row r="17" spans="1:52">
       <c r="A17" s="9" t="str">
@@ -3153,56 +3154,56 @@
         <v/>
       </c>
       <c r="B17" s="10"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="79"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="81"/>
-      <c r="P17" s="82"/>
-      <c r="Q17" s="80"/>
-      <c r="R17" s="81"/>
-      <c r="S17" s="81"/>
-      <c r="T17" s="81"/>
-      <c r="U17" s="81"/>
-      <c r="V17" s="81"/>
-      <c r="W17" s="81"/>
-      <c r="X17" s="81"/>
-      <c r="Y17" s="81"/>
-      <c r="Z17" s="81"/>
-      <c r="AA17" s="81"/>
-      <c r="AB17" s="81"/>
-      <c r="AC17" s="81"/>
-      <c r="AD17" s="81"/>
-      <c r="AE17" s="81"/>
-      <c r="AF17" s="81"/>
-      <c r="AG17" s="81"/>
-      <c r="AH17" s="81"/>
-      <c r="AI17" s="81"/>
-      <c r="AJ17" s="81"/>
-      <c r="AK17" s="81"/>
-      <c r="AL17" s="82"/>
-      <c r="AM17" s="80"/>
-      <c r="AN17" s="81"/>
-      <c r="AO17" s="81"/>
-      <c r="AP17" s="81"/>
-      <c r="AQ17" s="81"/>
-      <c r="AR17" s="81"/>
-      <c r="AS17" s="81"/>
-      <c r="AT17" s="81"/>
-      <c r="AU17" s="81"/>
-      <c r="AV17" s="81"/>
-      <c r="AW17" s="81"/>
-      <c r="AX17" s="81"/>
-      <c r="AY17" s="81"/>
-      <c r="AZ17" s="82"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="84"/>
+      <c r="N17" s="84"/>
+      <c r="O17" s="84"/>
+      <c r="P17" s="85"/>
+      <c r="Q17" s="83"/>
+      <c r="R17" s="84"/>
+      <c r="S17" s="84"/>
+      <c r="T17" s="84"/>
+      <c r="U17" s="84"/>
+      <c r="V17" s="84"/>
+      <c r="W17" s="84"/>
+      <c r="X17" s="84"/>
+      <c r="Y17" s="84"/>
+      <c r="Z17" s="84"/>
+      <c r="AA17" s="84"/>
+      <c r="AB17" s="84"/>
+      <c r="AC17" s="84"/>
+      <c r="AD17" s="84"/>
+      <c r="AE17" s="84"/>
+      <c r="AF17" s="84"/>
+      <c r="AG17" s="84"/>
+      <c r="AH17" s="84"/>
+      <c r="AI17" s="84"/>
+      <c r="AJ17" s="84"/>
+      <c r="AK17" s="84"/>
+      <c r="AL17" s="85"/>
+      <c r="AM17" s="83"/>
+      <c r="AN17" s="84"/>
+      <c r="AO17" s="84"/>
+      <c r="AP17" s="84"/>
+      <c r="AQ17" s="84"/>
+      <c r="AR17" s="84"/>
+      <c r="AS17" s="84"/>
+      <c r="AT17" s="84"/>
+      <c r="AU17" s="84"/>
+      <c r="AV17" s="84"/>
+      <c r="AW17" s="84"/>
+      <c r="AX17" s="84"/>
+      <c r="AY17" s="84"/>
+      <c r="AZ17" s="85"/>
     </row>
     <row r="18" spans="1:52">
       <c r="A18" s="9" t="str">
@@ -3210,56 +3211,56 @@
         <v/>
       </c>
       <c r="B18" s="10"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="81"/>
-      <c r="N18" s="81"/>
-      <c r="O18" s="81"/>
-      <c r="P18" s="82"/>
-      <c r="Q18" s="80"/>
-      <c r="R18" s="81"/>
-      <c r="S18" s="81"/>
-      <c r="T18" s="81"/>
-      <c r="U18" s="81"/>
-      <c r="V18" s="81"/>
-      <c r="W18" s="81"/>
-      <c r="X18" s="81"/>
-      <c r="Y18" s="81"/>
-      <c r="Z18" s="81"/>
-      <c r="AA18" s="81"/>
-      <c r="AB18" s="81"/>
-      <c r="AC18" s="81"/>
-      <c r="AD18" s="81"/>
-      <c r="AE18" s="81"/>
-      <c r="AF18" s="81"/>
-      <c r="AG18" s="81"/>
-      <c r="AH18" s="81"/>
-      <c r="AI18" s="81"/>
-      <c r="AJ18" s="81"/>
-      <c r="AK18" s="81"/>
-      <c r="AL18" s="82"/>
-      <c r="AM18" s="80"/>
-      <c r="AN18" s="81"/>
-      <c r="AO18" s="81"/>
-      <c r="AP18" s="81"/>
-      <c r="AQ18" s="81"/>
-      <c r="AR18" s="81"/>
-      <c r="AS18" s="81"/>
-      <c r="AT18" s="81"/>
-      <c r="AU18" s="81"/>
-      <c r="AV18" s="81"/>
-      <c r="AW18" s="81"/>
-      <c r="AX18" s="81"/>
-      <c r="AY18" s="81"/>
-      <c r="AZ18" s="82"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="84"/>
+      <c r="N18" s="84"/>
+      <c r="O18" s="84"/>
+      <c r="P18" s="85"/>
+      <c r="Q18" s="83"/>
+      <c r="R18" s="84"/>
+      <c r="S18" s="84"/>
+      <c r="T18" s="84"/>
+      <c r="U18" s="84"/>
+      <c r="V18" s="84"/>
+      <c r="W18" s="84"/>
+      <c r="X18" s="84"/>
+      <c r="Y18" s="84"/>
+      <c r="Z18" s="84"/>
+      <c r="AA18" s="84"/>
+      <c r="AB18" s="84"/>
+      <c r="AC18" s="84"/>
+      <c r="AD18" s="84"/>
+      <c r="AE18" s="84"/>
+      <c r="AF18" s="84"/>
+      <c r="AG18" s="84"/>
+      <c r="AH18" s="84"/>
+      <c r="AI18" s="84"/>
+      <c r="AJ18" s="84"/>
+      <c r="AK18" s="84"/>
+      <c r="AL18" s="85"/>
+      <c r="AM18" s="83"/>
+      <c r="AN18" s="84"/>
+      <c r="AO18" s="84"/>
+      <c r="AP18" s="84"/>
+      <c r="AQ18" s="84"/>
+      <c r="AR18" s="84"/>
+      <c r="AS18" s="84"/>
+      <c r="AT18" s="84"/>
+      <c r="AU18" s="84"/>
+      <c r="AV18" s="84"/>
+      <c r="AW18" s="84"/>
+      <c r="AX18" s="84"/>
+      <c r="AY18" s="84"/>
+      <c r="AZ18" s="85"/>
     </row>
     <row r="19" spans="1:52">
       <c r="A19" s="9" t="str">
@@ -3267,56 +3268,56 @@
         <v/>
       </c>
       <c r="B19" s="10"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="81"/>
-      <c r="N19" s="81"/>
-      <c r="O19" s="81"/>
-      <c r="P19" s="82"/>
-      <c r="Q19" s="80"/>
-      <c r="R19" s="81"/>
-      <c r="S19" s="81"/>
-      <c r="T19" s="81"/>
-      <c r="U19" s="81"/>
-      <c r="V19" s="81"/>
-      <c r="W19" s="81"/>
-      <c r="X19" s="81"/>
-      <c r="Y19" s="81"/>
-      <c r="Z19" s="81"/>
-      <c r="AA19" s="81"/>
-      <c r="AB19" s="81"/>
-      <c r="AC19" s="81"/>
-      <c r="AD19" s="81"/>
-      <c r="AE19" s="81"/>
-      <c r="AF19" s="81"/>
-      <c r="AG19" s="81"/>
-      <c r="AH19" s="81"/>
-      <c r="AI19" s="81"/>
-      <c r="AJ19" s="81"/>
-      <c r="AK19" s="81"/>
-      <c r="AL19" s="82"/>
-      <c r="AM19" s="80"/>
-      <c r="AN19" s="81"/>
-      <c r="AO19" s="81"/>
-      <c r="AP19" s="81"/>
-      <c r="AQ19" s="81"/>
-      <c r="AR19" s="81"/>
-      <c r="AS19" s="81"/>
-      <c r="AT19" s="81"/>
-      <c r="AU19" s="81"/>
-      <c r="AV19" s="81"/>
-      <c r="AW19" s="81"/>
-      <c r="AX19" s="81"/>
-      <c r="AY19" s="81"/>
-      <c r="AZ19" s="82"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="84"/>
+      <c r="N19" s="84"/>
+      <c r="O19" s="84"/>
+      <c r="P19" s="85"/>
+      <c r="Q19" s="83"/>
+      <c r="R19" s="84"/>
+      <c r="S19" s="84"/>
+      <c r="T19" s="84"/>
+      <c r="U19" s="84"/>
+      <c r="V19" s="84"/>
+      <c r="W19" s="84"/>
+      <c r="X19" s="84"/>
+      <c r="Y19" s="84"/>
+      <c r="Z19" s="84"/>
+      <c r="AA19" s="84"/>
+      <c r="AB19" s="84"/>
+      <c r="AC19" s="84"/>
+      <c r="AD19" s="84"/>
+      <c r="AE19" s="84"/>
+      <c r="AF19" s="84"/>
+      <c r="AG19" s="84"/>
+      <c r="AH19" s="84"/>
+      <c r="AI19" s="84"/>
+      <c r="AJ19" s="84"/>
+      <c r="AK19" s="84"/>
+      <c r="AL19" s="85"/>
+      <c r="AM19" s="83"/>
+      <c r="AN19" s="84"/>
+      <c r="AO19" s="84"/>
+      <c r="AP19" s="84"/>
+      <c r="AQ19" s="84"/>
+      <c r="AR19" s="84"/>
+      <c r="AS19" s="84"/>
+      <c r="AT19" s="84"/>
+      <c r="AU19" s="84"/>
+      <c r="AV19" s="84"/>
+      <c r="AW19" s="84"/>
+      <c r="AX19" s="84"/>
+      <c r="AY19" s="84"/>
+      <c r="AZ19" s="85"/>
     </row>
     <row r="20" spans="1:52">
       <c r="A20" s="9" t="str">
@@ -3324,56 +3325,56 @@
         <v/>
       </c>
       <c r="B20" s="10"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="81"/>
-      <c r="N20" s="81"/>
-      <c r="O20" s="81"/>
-      <c r="P20" s="82"/>
-      <c r="Q20" s="80"/>
-      <c r="R20" s="81"/>
-      <c r="S20" s="81"/>
-      <c r="T20" s="81"/>
-      <c r="U20" s="81"/>
-      <c r="V20" s="81"/>
-      <c r="W20" s="81"/>
-      <c r="X20" s="81"/>
-      <c r="Y20" s="81"/>
-      <c r="Z20" s="81"/>
-      <c r="AA20" s="81"/>
-      <c r="AB20" s="81"/>
-      <c r="AC20" s="81"/>
-      <c r="AD20" s="81"/>
-      <c r="AE20" s="81"/>
-      <c r="AF20" s="81"/>
-      <c r="AG20" s="81"/>
-      <c r="AH20" s="81"/>
-      <c r="AI20" s="81"/>
-      <c r="AJ20" s="81"/>
-      <c r="AK20" s="81"/>
-      <c r="AL20" s="82"/>
-      <c r="AM20" s="80"/>
-      <c r="AN20" s="81"/>
-      <c r="AO20" s="81"/>
-      <c r="AP20" s="81"/>
-      <c r="AQ20" s="81"/>
-      <c r="AR20" s="81"/>
-      <c r="AS20" s="81"/>
-      <c r="AT20" s="81"/>
-      <c r="AU20" s="81"/>
-      <c r="AV20" s="81"/>
-      <c r="AW20" s="81"/>
-      <c r="AX20" s="81"/>
-      <c r="AY20" s="81"/>
-      <c r="AZ20" s="82"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="82"/>
+      <c r="L20" s="83"/>
+      <c r="M20" s="84"/>
+      <c r="N20" s="84"/>
+      <c r="O20" s="84"/>
+      <c r="P20" s="85"/>
+      <c r="Q20" s="83"/>
+      <c r="R20" s="84"/>
+      <c r="S20" s="84"/>
+      <c r="T20" s="84"/>
+      <c r="U20" s="84"/>
+      <c r="V20" s="84"/>
+      <c r="W20" s="84"/>
+      <c r="X20" s="84"/>
+      <c r="Y20" s="84"/>
+      <c r="Z20" s="84"/>
+      <c r="AA20" s="84"/>
+      <c r="AB20" s="84"/>
+      <c r="AC20" s="84"/>
+      <c r="AD20" s="84"/>
+      <c r="AE20" s="84"/>
+      <c r="AF20" s="84"/>
+      <c r="AG20" s="84"/>
+      <c r="AH20" s="84"/>
+      <c r="AI20" s="84"/>
+      <c r="AJ20" s="84"/>
+      <c r="AK20" s="84"/>
+      <c r="AL20" s="85"/>
+      <c r="AM20" s="83"/>
+      <c r="AN20" s="84"/>
+      <c r="AO20" s="84"/>
+      <c r="AP20" s="84"/>
+      <c r="AQ20" s="84"/>
+      <c r="AR20" s="84"/>
+      <c r="AS20" s="84"/>
+      <c r="AT20" s="84"/>
+      <c r="AU20" s="84"/>
+      <c r="AV20" s="84"/>
+      <c r="AW20" s="84"/>
+      <c r="AX20" s="84"/>
+      <c r="AY20" s="84"/>
+      <c r="AZ20" s="85"/>
     </row>
     <row r="21" spans="1:52">
       <c r="A21" s="9" t="str">
@@ -3381,56 +3382,56 @@
         <v/>
       </c>
       <c r="B21" s="10"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="79"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="81"/>
-      <c r="N21" s="81"/>
-      <c r="O21" s="81"/>
-      <c r="P21" s="82"/>
-      <c r="Q21" s="80"/>
-      <c r="R21" s="81"/>
-      <c r="S21" s="81"/>
-      <c r="T21" s="81"/>
-      <c r="U21" s="81"/>
-      <c r="V21" s="81"/>
-      <c r="W21" s="81"/>
-      <c r="X21" s="81"/>
-      <c r="Y21" s="81"/>
-      <c r="Z21" s="81"/>
-      <c r="AA21" s="81"/>
-      <c r="AB21" s="81"/>
-      <c r="AC21" s="81"/>
-      <c r="AD21" s="81"/>
-      <c r="AE21" s="81"/>
-      <c r="AF21" s="81"/>
-      <c r="AG21" s="81"/>
-      <c r="AH21" s="81"/>
-      <c r="AI21" s="81"/>
-      <c r="AJ21" s="81"/>
-      <c r="AK21" s="81"/>
-      <c r="AL21" s="82"/>
-      <c r="AM21" s="80"/>
-      <c r="AN21" s="81"/>
-      <c r="AO21" s="81"/>
-      <c r="AP21" s="81"/>
-      <c r="AQ21" s="81"/>
-      <c r="AR21" s="81"/>
-      <c r="AS21" s="81"/>
-      <c r="AT21" s="81"/>
-      <c r="AU21" s="81"/>
-      <c r="AV21" s="81"/>
-      <c r="AW21" s="81"/>
-      <c r="AX21" s="81"/>
-      <c r="AY21" s="81"/>
-      <c r="AZ21" s="82"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="82"/>
+      <c r="L21" s="83"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="84"/>
+      <c r="O21" s="84"/>
+      <c r="P21" s="85"/>
+      <c r="Q21" s="83"/>
+      <c r="R21" s="84"/>
+      <c r="S21" s="84"/>
+      <c r="T21" s="84"/>
+      <c r="U21" s="84"/>
+      <c r="V21" s="84"/>
+      <c r="W21" s="84"/>
+      <c r="X21" s="84"/>
+      <c r="Y21" s="84"/>
+      <c r="Z21" s="84"/>
+      <c r="AA21" s="84"/>
+      <c r="AB21" s="84"/>
+      <c r="AC21" s="84"/>
+      <c r="AD21" s="84"/>
+      <c r="AE21" s="84"/>
+      <c r="AF21" s="84"/>
+      <c r="AG21" s="84"/>
+      <c r="AH21" s="84"/>
+      <c r="AI21" s="84"/>
+      <c r="AJ21" s="84"/>
+      <c r="AK21" s="84"/>
+      <c r="AL21" s="85"/>
+      <c r="AM21" s="83"/>
+      <c r="AN21" s="84"/>
+      <c r="AO21" s="84"/>
+      <c r="AP21" s="84"/>
+      <c r="AQ21" s="84"/>
+      <c r="AR21" s="84"/>
+      <c r="AS21" s="84"/>
+      <c r="AT21" s="84"/>
+      <c r="AU21" s="84"/>
+      <c r="AV21" s="84"/>
+      <c r="AW21" s="84"/>
+      <c r="AX21" s="84"/>
+      <c r="AY21" s="84"/>
+      <c r="AZ21" s="85"/>
     </row>
     <row r="22" spans="1:52">
       <c r="A22" s="9" t="str">
@@ -3438,56 +3439,56 @@
         <v/>
       </c>
       <c r="B22" s="10"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="80"/>
-      <c r="M22" s="81"/>
-      <c r="N22" s="81"/>
-      <c r="O22" s="81"/>
-      <c r="P22" s="82"/>
-      <c r="Q22" s="80"/>
-      <c r="R22" s="81"/>
-      <c r="S22" s="81"/>
-      <c r="T22" s="81"/>
-      <c r="U22" s="81"/>
-      <c r="V22" s="81"/>
-      <c r="W22" s="81"/>
-      <c r="X22" s="81"/>
-      <c r="Y22" s="81"/>
-      <c r="Z22" s="81"/>
-      <c r="AA22" s="81"/>
-      <c r="AB22" s="81"/>
-      <c r="AC22" s="81"/>
-      <c r="AD22" s="81"/>
-      <c r="AE22" s="81"/>
-      <c r="AF22" s="81"/>
-      <c r="AG22" s="81"/>
-      <c r="AH22" s="81"/>
-      <c r="AI22" s="81"/>
-      <c r="AJ22" s="81"/>
-      <c r="AK22" s="81"/>
-      <c r="AL22" s="82"/>
-      <c r="AM22" s="80"/>
-      <c r="AN22" s="81"/>
-      <c r="AO22" s="81"/>
-      <c r="AP22" s="81"/>
-      <c r="AQ22" s="81"/>
-      <c r="AR22" s="81"/>
-      <c r="AS22" s="81"/>
-      <c r="AT22" s="81"/>
-      <c r="AU22" s="81"/>
-      <c r="AV22" s="81"/>
-      <c r="AW22" s="81"/>
-      <c r="AX22" s="81"/>
-      <c r="AY22" s="81"/>
-      <c r="AZ22" s="82"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="83"/>
+      <c r="M22" s="84"/>
+      <c r="N22" s="84"/>
+      <c r="O22" s="84"/>
+      <c r="P22" s="85"/>
+      <c r="Q22" s="83"/>
+      <c r="R22" s="84"/>
+      <c r="S22" s="84"/>
+      <c r="T22" s="84"/>
+      <c r="U22" s="84"/>
+      <c r="V22" s="84"/>
+      <c r="W22" s="84"/>
+      <c r="X22" s="84"/>
+      <c r="Y22" s="84"/>
+      <c r="Z22" s="84"/>
+      <c r="AA22" s="84"/>
+      <c r="AB22" s="84"/>
+      <c r="AC22" s="84"/>
+      <c r="AD22" s="84"/>
+      <c r="AE22" s="84"/>
+      <c r="AF22" s="84"/>
+      <c r="AG22" s="84"/>
+      <c r="AH22" s="84"/>
+      <c r="AI22" s="84"/>
+      <c r="AJ22" s="84"/>
+      <c r="AK22" s="84"/>
+      <c r="AL22" s="85"/>
+      <c r="AM22" s="83"/>
+      <c r="AN22" s="84"/>
+      <c r="AO22" s="84"/>
+      <c r="AP22" s="84"/>
+      <c r="AQ22" s="84"/>
+      <c r="AR22" s="84"/>
+      <c r="AS22" s="84"/>
+      <c r="AT22" s="84"/>
+      <c r="AU22" s="84"/>
+      <c r="AV22" s="84"/>
+      <c r="AW22" s="84"/>
+      <c r="AX22" s="84"/>
+      <c r="AY22" s="84"/>
+      <c r="AZ22" s="85"/>
     </row>
     <row r="23" spans="1:52">
       <c r="A23" s="9" t="str">
@@ -3495,56 +3496,56 @@
         <v/>
       </c>
       <c r="B23" s="10"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="80"/>
-      <c r="M23" s="81"/>
-      <c r="N23" s="81"/>
-      <c r="O23" s="81"/>
-      <c r="P23" s="82"/>
-      <c r="Q23" s="80"/>
-      <c r="R23" s="81"/>
-      <c r="S23" s="81"/>
-      <c r="T23" s="81"/>
-      <c r="U23" s="81"/>
-      <c r="V23" s="81"/>
-      <c r="W23" s="81"/>
-      <c r="X23" s="81"/>
-      <c r="Y23" s="81"/>
-      <c r="Z23" s="81"/>
-      <c r="AA23" s="81"/>
-      <c r="AB23" s="81"/>
-      <c r="AC23" s="81"/>
-      <c r="AD23" s="81"/>
-      <c r="AE23" s="81"/>
-      <c r="AF23" s="81"/>
-      <c r="AG23" s="81"/>
-      <c r="AH23" s="81"/>
-      <c r="AI23" s="81"/>
-      <c r="AJ23" s="81"/>
-      <c r="AK23" s="81"/>
-      <c r="AL23" s="82"/>
-      <c r="AM23" s="80"/>
-      <c r="AN23" s="81"/>
-      <c r="AO23" s="81"/>
-      <c r="AP23" s="81"/>
-      <c r="AQ23" s="81"/>
-      <c r="AR23" s="81"/>
-      <c r="AS23" s="81"/>
-      <c r="AT23" s="81"/>
-      <c r="AU23" s="81"/>
-      <c r="AV23" s="81"/>
-      <c r="AW23" s="81"/>
-      <c r="AX23" s="81"/>
-      <c r="AY23" s="81"/>
-      <c r="AZ23" s="82"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="83"/>
+      <c r="M23" s="84"/>
+      <c r="N23" s="84"/>
+      <c r="O23" s="84"/>
+      <c r="P23" s="85"/>
+      <c r="Q23" s="83"/>
+      <c r="R23" s="84"/>
+      <c r="S23" s="84"/>
+      <c r="T23" s="84"/>
+      <c r="U23" s="84"/>
+      <c r="V23" s="84"/>
+      <c r="W23" s="84"/>
+      <c r="X23" s="84"/>
+      <c r="Y23" s="84"/>
+      <c r="Z23" s="84"/>
+      <c r="AA23" s="84"/>
+      <c r="AB23" s="84"/>
+      <c r="AC23" s="84"/>
+      <c r="AD23" s="84"/>
+      <c r="AE23" s="84"/>
+      <c r="AF23" s="84"/>
+      <c r="AG23" s="84"/>
+      <c r="AH23" s="84"/>
+      <c r="AI23" s="84"/>
+      <c r="AJ23" s="84"/>
+      <c r="AK23" s="84"/>
+      <c r="AL23" s="85"/>
+      <c r="AM23" s="83"/>
+      <c r="AN23" s="84"/>
+      <c r="AO23" s="84"/>
+      <c r="AP23" s="84"/>
+      <c r="AQ23" s="84"/>
+      <c r="AR23" s="84"/>
+      <c r="AS23" s="84"/>
+      <c r="AT23" s="84"/>
+      <c r="AU23" s="84"/>
+      <c r="AV23" s="84"/>
+      <c r="AW23" s="84"/>
+      <c r="AX23" s="84"/>
+      <c r="AY23" s="84"/>
+      <c r="AZ23" s="85"/>
     </row>
     <row r="24" spans="1:52">
       <c r="A24" s="9" t="str">
@@ -3552,56 +3553,56 @@
         <v/>
       </c>
       <c r="B24" s="10"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="80"/>
-      <c r="M24" s="81"/>
-      <c r="N24" s="81"/>
-      <c r="O24" s="81"/>
-      <c r="P24" s="82"/>
-      <c r="Q24" s="80"/>
-      <c r="R24" s="81"/>
-      <c r="S24" s="81"/>
-      <c r="T24" s="81"/>
-      <c r="U24" s="81"/>
-      <c r="V24" s="81"/>
-      <c r="W24" s="81"/>
-      <c r="X24" s="81"/>
-      <c r="Y24" s="81"/>
-      <c r="Z24" s="81"/>
-      <c r="AA24" s="81"/>
-      <c r="AB24" s="81"/>
-      <c r="AC24" s="81"/>
-      <c r="AD24" s="81"/>
-      <c r="AE24" s="81"/>
-      <c r="AF24" s="81"/>
-      <c r="AG24" s="81"/>
-      <c r="AH24" s="81"/>
-      <c r="AI24" s="81"/>
-      <c r="AJ24" s="81"/>
-      <c r="AK24" s="81"/>
-      <c r="AL24" s="82"/>
-      <c r="AM24" s="80"/>
-      <c r="AN24" s="81"/>
-      <c r="AO24" s="81"/>
-      <c r="AP24" s="81"/>
-      <c r="AQ24" s="81"/>
-      <c r="AR24" s="81"/>
-      <c r="AS24" s="81"/>
-      <c r="AT24" s="81"/>
-      <c r="AU24" s="81"/>
-      <c r="AV24" s="81"/>
-      <c r="AW24" s="81"/>
-      <c r="AX24" s="81"/>
-      <c r="AY24" s="81"/>
-      <c r="AZ24" s="82"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="83"/>
+      <c r="M24" s="84"/>
+      <c r="N24" s="84"/>
+      <c r="O24" s="84"/>
+      <c r="P24" s="85"/>
+      <c r="Q24" s="83"/>
+      <c r="R24" s="84"/>
+      <c r="S24" s="84"/>
+      <c r="T24" s="84"/>
+      <c r="U24" s="84"/>
+      <c r="V24" s="84"/>
+      <c r="W24" s="84"/>
+      <c r="X24" s="84"/>
+      <c r="Y24" s="84"/>
+      <c r="Z24" s="84"/>
+      <c r="AA24" s="84"/>
+      <c r="AB24" s="84"/>
+      <c r="AC24" s="84"/>
+      <c r="AD24" s="84"/>
+      <c r="AE24" s="84"/>
+      <c r="AF24" s="84"/>
+      <c r="AG24" s="84"/>
+      <c r="AH24" s="84"/>
+      <c r="AI24" s="84"/>
+      <c r="AJ24" s="84"/>
+      <c r="AK24" s="84"/>
+      <c r="AL24" s="85"/>
+      <c r="AM24" s="83"/>
+      <c r="AN24" s="84"/>
+      <c r="AO24" s="84"/>
+      <c r="AP24" s="84"/>
+      <c r="AQ24" s="84"/>
+      <c r="AR24" s="84"/>
+      <c r="AS24" s="84"/>
+      <c r="AT24" s="84"/>
+      <c r="AU24" s="84"/>
+      <c r="AV24" s="84"/>
+      <c r="AW24" s="84"/>
+      <c r="AX24" s="84"/>
+      <c r="AY24" s="84"/>
+      <c r="AZ24" s="85"/>
     </row>
     <row r="25" spans="1:52">
       <c r="A25" s="9" t="str">
@@ -3609,56 +3610,56 @@
         <v/>
       </c>
       <c r="B25" s="10"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="78"/>
-      <c r="J25" s="78"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="80"/>
-      <c r="M25" s="81"/>
-      <c r="N25" s="81"/>
-      <c r="O25" s="81"/>
-      <c r="P25" s="82"/>
-      <c r="Q25" s="80"/>
-      <c r="R25" s="81"/>
-      <c r="S25" s="81"/>
-      <c r="T25" s="81"/>
-      <c r="U25" s="81"/>
-      <c r="V25" s="81"/>
-      <c r="W25" s="81"/>
-      <c r="X25" s="81"/>
-      <c r="Y25" s="81"/>
-      <c r="Z25" s="81"/>
-      <c r="AA25" s="81"/>
-      <c r="AB25" s="81"/>
-      <c r="AC25" s="81"/>
-      <c r="AD25" s="81"/>
-      <c r="AE25" s="81"/>
-      <c r="AF25" s="81"/>
-      <c r="AG25" s="81"/>
-      <c r="AH25" s="81"/>
-      <c r="AI25" s="81"/>
-      <c r="AJ25" s="81"/>
-      <c r="AK25" s="81"/>
-      <c r="AL25" s="82"/>
-      <c r="AM25" s="80"/>
-      <c r="AN25" s="81"/>
-      <c r="AO25" s="81"/>
-      <c r="AP25" s="81"/>
-      <c r="AQ25" s="81"/>
-      <c r="AR25" s="81"/>
-      <c r="AS25" s="81"/>
-      <c r="AT25" s="81"/>
-      <c r="AU25" s="81"/>
-      <c r="AV25" s="81"/>
-      <c r="AW25" s="81"/>
-      <c r="AX25" s="81"/>
-      <c r="AY25" s="81"/>
-      <c r="AZ25" s="82"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="81"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="83"/>
+      <c r="M25" s="84"/>
+      <c r="N25" s="84"/>
+      <c r="O25" s="84"/>
+      <c r="P25" s="85"/>
+      <c r="Q25" s="83"/>
+      <c r="R25" s="84"/>
+      <c r="S25" s="84"/>
+      <c r="T25" s="84"/>
+      <c r="U25" s="84"/>
+      <c r="V25" s="84"/>
+      <c r="W25" s="84"/>
+      <c r="X25" s="84"/>
+      <c r="Y25" s="84"/>
+      <c r="Z25" s="84"/>
+      <c r="AA25" s="84"/>
+      <c r="AB25" s="84"/>
+      <c r="AC25" s="84"/>
+      <c r="AD25" s="84"/>
+      <c r="AE25" s="84"/>
+      <c r="AF25" s="84"/>
+      <c r="AG25" s="84"/>
+      <c r="AH25" s="84"/>
+      <c r="AI25" s="84"/>
+      <c r="AJ25" s="84"/>
+      <c r="AK25" s="84"/>
+      <c r="AL25" s="85"/>
+      <c r="AM25" s="83"/>
+      <c r="AN25" s="84"/>
+      <c r="AO25" s="84"/>
+      <c r="AP25" s="84"/>
+      <c r="AQ25" s="84"/>
+      <c r="AR25" s="84"/>
+      <c r="AS25" s="84"/>
+      <c r="AT25" s="84"/>
+      <c r="AU25" s="84"/>
+      <c r="AV25" s="84"/>
+      <c r="AW25" s="84"/>
+      <c r="AX25" s="84"/>
+      <c r="AY25" s="84"/>
+      <c r="AZ25" s="85"/>
     </row>
     <row r="26" spans="1:52">
       <c r="A26" s="9" t="str">
@@ -3666,56 +3667,56 @@
         <v/>
       </c>
       <c r="B26" s="10"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="79"/>
-      <c r="L26" s="80"/>
-      <c r="M26" s="81"/>
-      <c r="N26" s="81"/>
-      <c r="O26" s="81"/>
-      <c r="P26" s="82"/>
-      <c r="Q26" s="80"/>
-      <c r="R26" s="81"/>
-      <c r="S26" s="81"/>
-      <c r="T26" s="81"/>
-      <c r="U26" s="81"/>
-      <c r="V26" s="81"/>
-      <c r="W26" s="81"/>
-      <c r="X26" s="81"/>
-      <c r="Y26" s="81"/>
-      <c r="Z26" s="81"/>
-      <c r="AA26" s="81"/>
-      <c r="AB26" s="81"/>
-      <c r="AC26" s="81"/>
-      <c r="AD26" s="81"/>
-      <c r="AE26" s="81"/>
-      <c r="AF26" s="81"/>
-      <c r="AG26" s="81"/>
-      <c r="AH26" s="81"/>
-      <c r="AI26" s="81"/>
-      <c r="AJ26" s="81"/>
-      <c r="AK26" s="81"/>
-      <c r="AL26" s="82"/>
-      <c r="AM26" s="80"/>
-      <c r="AN26" s="81"/>
-      <c r="AO26" s="81"/>
-      <c r="AP26" s="81"/>
-      <c r="AQ26" s="81"/>
-      <c r="AR26" s="81"/>
-      <c r="AS26" s="81"/>
-      <c r="AT26" s="81"/>
-      <c r="AU26" s="81"/>
-      <c r="AV26" s="81"/>
-      <c r="AW26" s="81"/>
-      <c r="AX26" s="81"/>
-      <c r="AY26" s="81"/>
-      <c r="AZ26" s="82"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="81"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="83"/>
+      <c r="M26" s="84"/>
+      <c r="N26" s="84"/>
+      <c r="O26" s="84"/>
+      <c r="P26" s="85"/>
+      <c r="Q26" s="83"/>
+      <c r="R26" s="84"/>
+      <c r="S26" s="84"/>
+      <c r="T26" s="84"/>
+      <c r="U26" s="84"/>
+      <c r="V26" s="84"/>
+      <c r="W26" s="84"/>
+      <c r="X26" s="84"/>
+      <c r="Y26" s="84"/>
+      <c r="Z26" s="84"/>
+      <c r="AA26" s="84"/>
+      <c r="AB26" s="84"/>
+      <c r="AC26" s="84"/>
+      <c r="AD26" s="84"/>
+      <c r="AE26" s="84"/>
+      <c r="AF26" s="84"/>
+      <c r="AG26" s="84"/>
+      <c r="AH26" s="84"/>
+      <c r="AI26" s="84"/>
+      <c r="AJ26" s="84"/>
+      <c r="AK26" s="84"/>
+      <c r="AL26" s="85"/>
+      <c r="AM26" s="83"/>
+      <c r="AN26" s="84"/>
+      <c r="AO26" s="84"/>
+      <c r="AP26" s="84"/>
+      <c r="AQ26" s="84"/>
+      <c r="AR26" s="84"/>
+      <c r="AS26" s="84"/>
+      <c r="AT26" s="84"/>
+      <c r="AU26" s="84"/>
+      <c r="AV26" s="84"/>
+      <c r="AW26" s="84"/>
+      <c r="AX26" s="84"/>
+      <c r="AY26" s="84"/>
+      <c r="AZ26" s="85"/>
     </row>
     <row r="27" spans="1:52">
       <c r="A27" s="9" t="str">
@@ -3723,56 +3724,56 @@
         <v/>
       </c>
       <c r="B27" s="10"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="80"/>
-      <c r="M27" s="81"/>
-      <c r="N27" s="81"/>
-      <c r="O27" s="81"/>
-      <c r="P27" s="82"/>
-      <c r="Q27" s="80"/>
-      <c r="R27" s="81"/>
-      <c r="S27" s="81"/>
-      <c r="T27" s="81"/>
-      <c r="U27" s="81"/>
-      <c r="V27" s="81"/>
-      <c r="W27" s="81"/>
-      <c r="X27" s="81"/>
-      <c r="Y27" s="81"/>
-      <c r="Z27" s="81"/>
-      <c r="AA27" s="81"/>
-      <c r="AB27" s="81"/>
-      <c r="AC27" s="81"/>
-      <c r="AD27" s="81"/>
-      <c r="AE27" s="81"/>
-      <c r="AF27" s="81"/>
-      <c r="AG27" s="81"/>
-      <c r="AH27" s="81"/>
-      <c r="AI27" s="81"/>
-      <c r="AJ27" s="81"/>
-      <c r="AK27" s="81"/>
-      <c r="AL27" s="82"/>
-      <c r="AM27" s="80"/>
-      <c r="AN27" s="81"/>
-      <c r="AO27" s="81"/>
-      <c r="AP27" s="81"/>
-      <c r="AQ27" s="81"/>
-      <c r="AR27" s="81"/>
-      <c r="AS27" s="81"/>
-      <c r="AT27" s="81"/>
-      <c r="AU27" s="81"/>
-      <c r="AV27" s="81"/>
-      <c r="AW27" s="81"/>
-      <c r="AX27" s="81"/>
-      <c r="AY27" s="81"/>
-      <c r="AZ27" s="82"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="83"/>
+      <c r="M27" s="84"/>
+      <c r="N27" s="84"/>
+      <c r="O27" s="84"/>
+      <c r="P27" s="85"/>
+      <c r="Q27" s="83"/>
+      <c r="R27" s="84"/>
+      <c r="S27" s="84"/>
+      <c r="T27" s="84"/>
+      <c r="U27" s="84"/>
+      <c r="V27" s="84"/>
+      <c r="W27" s="84"/>
+      <c r="X27" s="84"/>
+      <c r="Y27" s="84"/>
+      <c r="Z27" s="84"/>
+      <c r="AA27" s="84"/>
+      <c r="AB27" s="84"/>
+      <c r="AC27" s="84"/>
+      <c r="AD27" s="84"/>
+      <c r="AE27" s="84"/>
+      <c r="AF27" s="84"/>
+      <c r="AG27" s="84"/>
+      <c r="AH27" s="84"/>
+      <c r="AI27" s="84"/>
+      <c r="AJ27" s="84"/>
+      <c r="AK27" s="84"/>
+      <c r="AL27" s="85"/>
+      <c r="AM27" s="83"/>
+      <c r="AN27" s="84"/>
+      <c r="AO27" s="84"/>
+      <c r="AP27" s="84"/>
+      <c r="AQ27" s="84"/>
+      <c r="AR27" s="84"/>
+      <c r="AS27" s="84"/>
+      <c r="AT27" s="84"/>
+      <c r="AU27" s="84"/>
+      <c r="AV27" s="84"/>
+      <c r="AW27" s="84"/>
+      <c r="AX27" s="84"/>
+      <c r="AY27" s="84"/>
+      <c r="AZ27" s="85"/>
     </row>
     <row r="28" spans="1:52">
       <c r="A28" s="9" t="str">
@@ -3780,56 +3781,56 @@
         <v/>
       </c>
       <c r="B28" s="10"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="78"/>
-      <c r="I28" s="78"/>
-      <c r="J28" s="78"/>
-      <c r="K28" s="79"/>
-      <c r="L28" s="80"/>
-      <c r="M28" s="81"/>
-      <c r="N28" s="81"/>
-      <c r="O28" s="81"/>
-      <c r="P28" s="82"/>
-      <c r="Q28" s="80"/>
-      <c r="R28" s="81"/>
-      <c r="S28" s="81"/>
-      <c r="T28" s="81"/>
-      <c r="U28" s="81"/>
-      <c r="V28" s="81"/>
-      <c r="W28" s="81"/>
-      <c r="X28" s="81"/>
-      <c r="Y28" s="81"/>
-      <c r="Z28" s="81"/>
-      <c r="AA28" s="81"/>
-      <c r="AB28" s="81"/>
-      <c r="AC28" s="81"/>
-      <c r="AD28" s="81"/>
-      <c r="AE28" s="81"/>
-      <c r="AF28" s="81"/>
-      <c r="AG28" s="81"/>
-      <c r="AH28" s="81"/>
-      <c r="AI28" s="81"/>
-      <c r="AJ28" s="81"/>
-      <c r="AK28" s="81"/>
-      <c r="AL28" s="82"/>
-      <c r="AM28" s="80"/>
-      <c r="AN28" s="81"/>
-      <c r="AO28" s="81"/>
-      <c r="AP28" s="81"/>
-      <c r="AQ28" s="81"/>
-      <c r="AR28" s="81"/>
-      <c r="AS28" s="81"/>
-      <c r="AT28" s="81"/>
-      <c r="AU28" s="81"/>
-      <c r="AV28" s="81"/>
-      <c r="AW28" s="81"/>
-      <c r="AX28" s="81"/>
-      <c r="AY28" s="81"/>
-      <c r="AZ28" s="82"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="81"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="83"/>
+      <c r="M28" s="84"/>
+      <c r="N28" s="84"/>
+      <c r="O28" s="84"/>
+      <c r="P28" s="85"/>
+      <c r="Q28" s="83"/>
+      <c r="R28" s="84"/>
+      <c r="S28" s="84"/>
+      <c r="T28" s="84"/>
+      <c r="U28" s="84"/>
+      <c r="V28" s="84"/>
+      <c r="W28" s="84"/>
+      <c r="X28" s="84"/>
+      <c r="Y28" s="84"/>
+      <c r="Z28" s="84"/>
+      <c r="AA28" s="84"/>
+      <c r="AB28" s="84"/>
+      <c r="AC28" s="84"/>
+      <c r="AD28" s="84"/>
+      <c r="AE28" s="84"/>
+      <c r="AF28" s="84"/>
+      <c r="AG28" s="84"/>
+      <c r="AH28" s="84"/>
+      <c r="AI28" s="84"/>
+      <c r="AJ28" s="84"/>
+      <c r="AK28" s="84"/>
+      <c r="AL28" s="85"/>
+      <c r="AM28" s="83"/>
+      <c r="AN28" s="84"/>
+      <c r="AO28" s="84"/>
+      <c r="AP28" s="84"/>
+      <c r="AQ28" s="84"/>
+      <c r="AR28" s="84"/>
+      <c r="AS28" s="84"/>
+      <c r="AT28" s="84"/>
+      <c r="AU28" s="84"/>
+      <c r="AV28" s="84"/>
+      <c r="AW28" s="84"/>
+      <c r="AX28" s="84"/>
+      <c r="AY28" s="84"/>
+      <c r="AZ28" s="85"/>
     </row>
     <row r="29" spans="1:52">
       <c r="A29" s="9" t="str">
@@ -3837,56 +3838,56 @@
         <v/>
       </c>
       <c r="B29" s="10"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="79"/>
-      <c r="L29" s="80"/>
-      <c r="M29" s="81"/>
-      <c r="N29" s="81"/>
-      <c r="O29" s="81"/>
-      <c r="P29" s="82"/>
-      <c r="Q29" s="80"/>
-      <c r="R29" s="81"/>
-      <c r="S29" s="81"/>
-      <c r="T29" s="81"/>
-      <c r="U29" s="81"/>
-      <c r="V29" s="81"/>
-      <c r="W29" s="81"/>
-      <c r="X29" s="81"/>
-      <c r="Y29" s="81"/>
-      <c r="Z29" s="81"/>
-      <c r="AA29" s="81"/>
-      <c r="AB29" s="81"/>
-      <c r="AC29" s="81"/>
-      <c r="AD29" s="81"/>
-      <c r="AE29" s="81"/>
-      <c r="AF29" s="81"/>
-      <c r="AG29" s="81"/>
-      <c r="AH29" s="81"/>
-      <c r="AI29" s="81"/>
-      <c r="AJ29" s="81"/>
-      <c r="AK29" s="81"/>
-      <c r="AL29" s="82"/>
-      <c r="AM29" s="80"/>
-      <c r="AN29" s="81"/>
-      <c r="AO29" s="81"/>
-      <c r="AP29" s="81"/>
-      <c r="AQ29" s="81"/>
-      <c r="AR29" s="81"/>
-      <c r="AS29" s="81"/>
-      <c r="AT29" s="81"/>
-      <c r="AU29" s="81"/>
-      <c r="AV29" s="81"/>
-      <c r="AW29" s="81"/>
-      <c r="AX29" s="81"/>
-      <c r="AY29" s="81"/>
-      <c r="AZ29" s="82"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="82"/>
+      <c r="L29" s="83"/>
+      <c r="M29" s="84"/>
+      <c r="N29" s="84"/>
+      <c r="O29" s="84"/>
+      <c r="P29" s="85"/>
+      <c r="Q29" s="83"/>
+      <c r="R29" s="84"/>
+      <c r="S29" s="84"/>
+      <c r="T29" s="84"/>
+      <c r="U29" s="84"/>
+      <c r="V29" s="84"/>
+      <c r="W29" s="84"/>
+      <c r="X29" s="84"/>
+      <c r="Y29" s="84"/>
+      <c r="Z29" s="84"/>
+      <c r="AA29" s="84"/>
+      <c r="AB29" s="84"/>
+      <c r="AC29" s="84"/>
+      <c r="AD29" s="84"/>
+      <c r="AE29" s="84"/>
+      <c r="AF29" s="84"/>
+      <c r="AG29" s="84"/>
+      <c r="AH29" s="84"/>
+      <c r="AI29" s="84"/>
+      <c r="AJ29" s="84"/>
+      <c r="AK29" s="84"/>
+      <c r="AL29" s="85"/>
+      <c r="AM29" s="83"/>
+      <c r="AN29" s="84"/>
+      <c r="AO29" s="84"/>
+      <c r="AP29" s="84"/>
+      <c r="AQ29" s="84"/>
+      <c r="AR29" s="84"/>
+      <c r="AS29" s="84"/>
+      <c r="AT29" s="84"/>
+      <c r="AU29" s="84"/>
+      <c r="AV29" s="84"/>
+      <c r="AW29" s="84"/>
+      <c r="AX29" s="84"/>
+      <c r="AY29" s="84"/>
+      <c r="AZ29" s="85"/>
     </row>
     <row r="30" spans="1:52">
       <c r="A30" s="9" t="str">
@@ -3894,56 +3895,56 @@
         <v/>
       </c>
       <c r="B30" s="10"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="78"/>
-      <c r="I30" s="78"/>
-      <c r="J30" s="78"/>
-      <c r="K30" s="79"/>
-      <c r="L30" s="80"/>
-      <c r="M30" s="81"/>
-      <c r="N30" s="81"/>
-      <c r="O30" s="81"/>
-      <c r="P30" s="82"/>
-      <c r="Q30" s="80"/>
-      <c r="R30" s="81"/>
-      <c r="S30" s="81"/>
-      <c r="T30" s="81"/>
-      <c r="U30" s="81"/>
-      <c r="V30" s="81"/>
-      <c r="W30" s="81"/>
-      <c r="X30" s="81"/>
-      <c r="Y30" s="81"/>
-      <c r="Z30" s="81"/>
-      <c r="AA30" s="81"/>
-      <c r="AB30" s="81"/>
-      <c r="AC30" s="81"/>
-      <c r="AD30" s="81"/>
-      <c r="AE30" s="81"/>
-      <c r="AF30" s="81"/>
-      <c r="AG30" s="81"/>
-      <c r="AH30" s="81"/>
-      <c r="AI30" s="81"/>
-      <c r="AJ30" s="81"/>
-      <c r="AK30" s="81"/>
-      <c r="AL30" s="82"/>
-      <c r="AM30" s="80"/>
-      <c r="AN30" s="81"/>
-      <c r="AO30" s="81"/>
-      <c r="AP30" s="81"/>
-      <c r="AQ30" s="81"/>
-      <c r="AR30" s="81"/>
-      <c r="AS30" s="81"/>
-      <c r="AT30" s="81"/>
-      <c r="AU30" s="81"/>
-      <c r="AV30" s="81"/>
-      <c r="AW30" s="81"/>
-      <c r="AX30" s="81"/>
-      <c r="AY30" s="81"/>
-      <c r="AZ30" s="82"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="81"/>
+      <c r="J30" s="81"/>
+      <c r="K30" s="82"/>
+      <c r="L30" s="83"/>
+      <c r="M30" s="84"/>
+      <c r="N30" s="84"/>
+      <c r="O30" s="84"/>
+      <c r="P30" s="85"/>
+      <c r="Q30" s="83"/>
+      <c r="R30" s="84"/>
+      <c r="S30" s="84"/>
+      <c r="T30" s="84"/>
+      <c r="U30" s="84"/>
+      <c r="V30" s="84"/>
+      <c r="W30" s="84"/>
+      <c r="X30" s="84"/>
+      <c r="Y30" s="84"/>
+      <c r="Z30" s="84"/>
+      <c r="AA30" s="84"/>
+      <c r="AB30" s="84"/>
+      <c r="AC30" s="84"/>
+      <c r="AD30" s="84"/>
+      <c r="AE30" s="84"/>
+      <c r="AF30" s="84"/>
+      <c r="AG30" s="84"/>
+      <c r="AH30" s="84"/>
+      <c r="AI30" s="84"/>
+      <c r="AJ30" s="84"/>
+      <c r="AK30" s="84"/>
+      <c r="AL30" s="85"/>
+      <c r="AM30" s="83"/>
+      <c r="AN30" s="84"/>
+      <c r="AO30" s="84"/>
+      <c r="AP30" s="84"/>
+      <c r="AQ30" s="84"/>
+      <c r="AR30" s="84"/>
+      <c r="AS30" s="84"/>
+      <c r="AT30" s="84"/>
+      <c r="AU30" s="84"/>
+      <c r="AV30" s="84"/>
+      <c r="AW30" s="84"/>
+      <c r="AX30" s="84"/>
+      <c r="AY30" s="84"/>
+      <c r="AZ30" s="85"/>
     </row>
     <row r="31" spans="1:52">
       <c r="A31" s="9" t="str">
@@ -3951,56 +3952,56 @@
         <v/>
       </c>
       <c r="B31" s="10"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="84"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="78"/>
-      <c r="K31" s="79"/>
-      <c r="L31" s="80"/>
-      <c r="M31" s="81"/>
-      <c r="N31" s="81"/>
-      <c r="O31" s="81"/>
-      <c r="P31" s="82"/>
-      <c r="Q31" s="80"/>
-      <c r="R31" s="81"/>
-      <c r="S31" s="81"/>
-      <c r="T31" s="81"/>
-      <c r="U31" s="81"/>
-      <c r="V31" s="81"/>
-      <c r="W31" s="81"/>
-      <c r="X31" s="81"/>
-      <c r="Y31" s="81"/>
-      <c r="Z31" s="81"/>
-      <c r="AA31" s="81"/>
-      <c r="AB31" s="81"/>
-      <c r="AC31" s="81"/>
-      <c r="AD31" s="81"/>
-      <c r="AE31" s="81"/>
-      <c r="AF31" s="81"/>
-      <c r="AG31" s="81"/>
-      <c r="AH31" s="81"/>
-      <c r="AI31" s="81"/>
-      <c r="AJ31" s="81"/>
-      <c r="AK31" s="81"/>
-      <c r="AL31" s="82"/>
-      <c r="AM31" s="80"/>
-      <c r="AN31" s="81"/>
-      <c r="AO31" s="81"/>
-      <c r="AP31" s="81"/>
-      <c r="AQ31" s="81"/>
-      <c r="AR31" s="81"/>
-      <c r="AS31" s="81"/>
-      <c r="AT31" s="81"/>
-      <c r="AU31" s="81"/>
-      <c r="AV31" s="81"/>
-      <c r="AW31" s="81"/>
-      <c r="AX31" s="81"/>
-      <c r="AY31" s="81"/>
-      <c r="AZ31" s="82"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="82"/>
+      <c r="L31" s="83"/>
+      <c r="M31" s="84"/>
+      <c r="N31" s="84"/>
+      <c r="O31" s="84"/>
+      <c r="P31" s="85"/>
+      <c r="Q31" s="83"/>
+      <c r="R31" s="84"/>
+      <c r="S31" s="84"/>
+      <c r="T31" s="84"/>
+      <c r="U31" s="84"/>
+      <c r="V31" s="84"/>
+      <c r="W31" s="84"/>
+      <c r="X31" s="84"/>
+      <c r="Y31" s="84"/>
+      <c r="Z31" s="84"/>
+      <c r="AA31" s="84"/>
+      <c r="AB31" s="84"/>
+      <c r="AC31" s="84"/>
+      <c r="AD31" s="84"/>
+      <c r="AE31" s="84"/>
+      <c r="AF31" s="84"/>
+      <c r="AG31" s="84"/>
+      <c r="AH31" s="84"/>
+      <c r="AI31" s="84"/>
+      <c r="AJ31" s="84"/>
+      <c r="AK31" s="84"/>
+      <c r="AL31" s="85"/>
+      <c r="AM31" s="83"/>
+      <c r="AN31" s="84"/>
+      <c r="AO31" s="84"/>
+      <c r="AP31" s="84"/>
+      <c r="AQ31" s="84"/>
+      <c r="AR31" s="84"/>
+      <c r="AS31" s="84"/>
+      <c r="AT31" s="84"/>
+      <c r="AU31" s="84"/>
+      <c r="AV31" s="84"/>
+      <c r="AW31" s="84"/>
+      <c r="AX31" s="84"/>
+      <c r="AY31" s="84"/>
+      <c r="AZ31" s="85"/>
     </row>
     <row r="32" spans="1:52">
       <c r="A32" s="9" t="str">
@@ -4008,56 +4009,56 @@
         <v/>
       </c>
       <c r="B32" s="10"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="84"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="78"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="78"/>
-      <c r="K32" s="79"/>
-      <c r="L32" s="80"/>
-      <c r="M32" s="81"/>
-      <c r="N32" s="81"/>
-      <c r="O32" s="81"/>
-      <c r="P32" s="82"/>
-      <c r="Q32" s="80"/>
-      <c r="R32" s="81"/>
-      <c r="S32" s="81"/>
-      <c r="T32" s="81"/>
-      <c r="U32" s="81"/>
-      <c r="V32" s="81"/>
-      <c r="W32" s="81"/>
-      <c r="X32" s="81"/>
-      <c r="Y32" s="81"/>
-      <c r="Z32" s="81"/>
-      <c r="AA32" s="81"/>
-      <c r="AB32" s="81"/>
-      <c r="AC32" s="81"/>
-      <c r="AD32" s="81"/>
-      <c r="AE32" s="81"/>
-      <c r="AF32" s="81"/>
-      <c r="AG32" s="81"/>
-      <c r="AH32" s="81"/>
-      <c r="AI32" s="81"/>
-      <c r="AJ32" s="81"/>
-      <c r="AK32" s="81"/>
-      <c r="AL32" s="82"/>
-      <c r="AM32" s="80"/>
-      <c r="AN32" s="81"/>
-      <c r="AO32" s="81"/>
-      <c r="AP32" s="81"/>
-      <c r="AQ32" s="81"/>
-      <c r="AR32" s="81"/>
-      <c r="AS32" s="81"/>
-      <c r="AT32" s="81"/>
-      <c r="AU32" s="81"/>
-      <c r="AV32" s="81"/>
-      <c r="AW32" s="81"/>
-      <c r="AX32" s="81"/>
-      <c r="AY32" s="81"/>
-      <c r="AZ32" s="82"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="78"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="81"/>
+      <c r="K32" s="82"/>
+      <c r="L32" s="83"/>
+      <c r="M32" s="84"/>
+      <c r="N32" s="84"/>
+      <c r="O32" s="84"/>
+      <c r="P32" s="85"/>
+      <c r="Q32" s="83"/>
+      <c r="R32" s="84"/>
+      <c r="S32" s="84"/>
+      <c r="T32" s="84"/>
+      <c r="U32" s="84"/>
+      <c r="V32" s="84"/>
+      <c r="W32" s="84"/>
+      <c r="X32" s="84"/>
+      <c r="Y32" s="84"/>
+      <c r="Z32" s="84"/>
+      <c r="AA32" s="84"/>
+      <c r="AB32" s="84"/>
+      <c r="AC32" s="84"/>
+      <c r="AD32" s="84"/>
+      <c r="AE32" s="84"/>
+      <c r="AF32" s="84"/>
+      <c r="AG32" s="84"/>
+      <c r="AH32" s="84"/>
+      <c r="AI32" s="84"/>
+      <c r="AJ32" s="84"/>
+      <c r="AK32" s="84"/>
+      <c r="AL32" s="85"/>
+      <c r="AM32" s="83"/>
+      <c r="AN32" s="84"/>
+      <c r="AO32" s="84"/>
+      <c r="AP32" s="84"/>
+      <c r="AQ32" s="84"/>
+      <c r="AR32" s="84"/>
+      <c r="AS32" s="84"/>
+      <c r="AT32" s="84"/>
+      <c r="AU32" s="84"/>
+      <c r="AV32" s="84"/>
+      <c r="AW32" s="84"/>
+      <c r="AX32" s="84"/>
+      <c r="AY32" s="84"/>
+      <c r="AZ32" s="85"/>
     </row>
     <row r="33" spans="1:52">
       <c r="A33" s="9" t="str">
@@ -4065,56 +4066,56 @@
         <v/>
       </c>
       <c r="B33" s="10"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="84"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="78"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="78"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="80"/>
-      <c r="M33" s="81"/>
-      <c r="N33" s="81"/>
-      <c r="O33" s="81"/>
-      <c r="P33" s="82"/>
-      <c r="Q33" s="80"/>
-      <c r="R33" s="81"/>
-      <c r="S33" s="81"/>
-      <c r="T33" s="81"/>
-      <c r="U33" s="81"/>
-      <c r="V33" s="81"/>
-      <c r="W33" s="81"/>
-      <c r="X33" s="81"/>
-      <c r="Y33" s="81"/>
-      <c r="Z33" s="81"/>
-      <c r="AA33" s="81"/>
-      <c r="AB33" s="81"/>
-      <c r="AC33" s="81"/>
-      <c r="AD33" s="81"/>
-      <c r="AE33" s="81"/>
-      <c r="AF33" s="81"/>
-      <c r="AG33" s="81"/>
-      <c r="AH33" s="81"/>
-      <c r="AI33" s="81"/>
-      <c r="AJ33" s="81"/>
-      <c r="AK33" s="81"/>
-      <c r="AL33" s="82"/>
-      <c r="AM33" s="80"/>
-      <c r="AN33" s="81"/>
-      <c r="AO33" s="81"/>
-      <c r="AP33" s="81"/>
-      <c r="AQ33" s="81"/>
-      <c r="AR33" s="81"/>
-      <c r="AS33" s="81"/>
-      <c r="AT33" s="81"/>
-      <c r="AU33" s="81"/>
-      <c r="AV33" s="81"/>
-      <c r="AW33" s="81"/>
-      <c r="AX33" s="81"/>
-      <c r="AY33" s="81"/>
-      <c r="AZ33" s="82"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="80"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="81"/>
+      <c r="J33" s="81"/>
+      <c r="K33" s="82"/>
+      <c r="L33" s="83"/>
+      <c r="M33" s="84"/>
+      <c r="N33" s="84"/>
+      <c r="O33" s="84"/>
+      <c r="P33" s="85"/>
+      <c r="Q33" s="83"/>
+      <c r="R33" s="84"/>
+      <c r="S33" s="84"/>
+      <c r="T33" s="84"/>
+      <c r="U33" s="84"/>
+      <c r="V33" s="84"/>
+      <c r="W33" s="84"/>
+      <c r="X33" s="84"/>
+      <c r="Y33" s="84"/>
+      <c r="Z33" s="84"/>
+      <c r="AA33" s="84"/>
+      <c r="AB33" s="84"/>
+      <c r="AC33" s="84"/>
+      <c r="AD33" s="84"/>
+      <c r="AE33" s="84"/>
+      <c r="AF33" s="84"/>
+      <c r="AG33" s="84"/>
+      <c r="AH33" s="84"/>
+      <c r="AI33" s="84"/>
+      <c r="AJ33" s="84"/>
+      <c r="AK33" s="84"/>
+      <c r="AL33" s="85"/>
+      <c r="AM33" s="83"/>
+      <c r="AN33" s="84"/>
+      <c r="AO33" s="84"/>
+      <c r="AP33" s="84"/>
+      <c r="AQ33" s="84"/>
+      <c r="AR33" s="84"/>
+      <c r="AS33" s="84"/>
+      <c r="AT33" s="84"/>
+      <c r="AU33" s="84"/>
+      <c r="AV33" s="84"/>
+      <c r="AW33" s="84"/>
+      <c r="AX33" s="84"/>
+      <c r="AY33" s="84"/>
+      <c r="AZ33" s="85"/>
     </row>
     <row r="34" spans="1:52">
       <c r="A34" s="9" t="str">
@@ -4122,56 +4123,56 @@
         <v/>
       </c>
       <c r="B34" s="10"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="84"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="78"/>
-      <c r="I34" s="78"/>
-      <c r="J34" s="78"/>
-      <c r="K34" s="79"/>
-      <c r="L34" s="80"/>
-      <c r="M34" s="81"/>
-      <c r="N34" s="81"/>
-      <c r="O34" s="81"/>
-      <c r="P34" s="82"/>
-      <c r="Q34" s="80"/>
-      <c r="R34" s="81"/>
-      <c r="S34" s="81"/>
-      <c r="T34" s="81"/>
-      <c r="U34" s="81"/>
-      <c r="V34" s="81"/>
-      <c r="W34" s="81"/>
-      <c r="X34" s="81"/>
-      <c r="Y34" s="81"/>
-      <c r="Z34" s="81"/>
-      <c r="AA34" s="81"/>
-      <c r="AB34" s="81"/>
-      <c r="AC34" s="81"/>
-      <c r="AD34" s="81"/>
-      <c r="AE34" s="81"/>
-      <c r="AF34" s="81"/>
-      <c r="AG34" s="81"/>
-      <c r="AH34" s="81"/>
-      <c r="AI34" s="81"/>
-      <c r="AJ34" s="81"/>
-      <c r="AK34" s="81"/>
-      <c r="AL34" s="82"/>
-      <c r="AM34" s="80"/>
-      <c r="AN34" s="81"/>
-      <c r="AO34" s="81"/>
-      <c r="AP34" s="81"/>
-      <c r="AQ34" s="81"/>
-      <c r="AR34" s="81"/>
-      <c r="AS34" s="81"/>
-      <c r="AT34" s="81"/>
-      <c r="AU34" s="81"/>
-      <c r="AV34" s="81"/>
-      <c r="AW34" s="81"/>
-      <c r="AX34" s="81"/>
-      <c r="AY34" s="81"/>
-      <c r="AZ34" s="82"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="80"/>
+      <c r="H34" s="81"/>
+      <c r="I34" s="81"/>
+      <c r="J34" s="81"/>
+      <c r="K34" s="82"/>
+      <c r="L34" s="83"/>
+      <c r="M34" s="84"/>
+      <c r="N34" s="84"/>
+      <c r="O34" s="84"/>
+      <c r="P34" s="85"/>
+      <c r="Q34" s="83"/>
+      <c r="R34" s="84"/>
+      <c r="S34" s="84"/>
+      <c r="T34" s="84"/>
+      <c r="U34" s="84"/>
+      <c r="V34" s="84"/>
+      <c r="W34" s="84"/>
+      <c r="X34" s="84"/>
+      <c r="Y34" s="84"/>
+      <c r="Z34" s="84"/>
+      <c r="AA34" s="84"/>
+      <c r="AB34" s="84"/>
+      <c r="AC34" s="84"/>
+      <c r="AD34" s="84"/>
+      <c r="AE34" s="84"/>
+      <c r="AF34" s="84"/>
+      <c r="AG34" s="84"/>
+      <c r="AH34" s="84"/>
+      <c r="AI34" s="84"/>
+      <c r="AJ34" s="84"/>
+      <c r="AK34" s="84"/>
+      <c r="AL34" s="85"/>
+      <c r="AM34" s="83"/>
+      <c r="AN34" s="84"/>
+      <c r="AO34" s="84"/>
+      <c r="AP34" s="84"/>
+      <c r="AQ34" s="84"/>
+      <c r="AR34" s="84"/>
+      <c r="AS34" s="84"/>
+      <c r="AT34" s="84"/>
+      <c r="AU34" s="84"/>
+      <c r="AV34" s="84"/>
+      <c r="AW34" s="84"/>
+      <c r="AX34" s="84"/>
+      <c r="AY34" s="84"/>
+      <c r="AZ34" s="85"/>
     </row>
     <row r="35" spans="1:52">
       <c r="A35" s="9" t="str">
@@ -4179,59 +4180,189 @@
         <v/>
       </c>
       <c r="B35" s="10"/>
-      <c r="C35" s="83"/>
-      <c r="D35" s="84"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="78"/>
-      <c r="I35" s="78"/>
-      <c r="J35" s="78"/>
-      <c r="K35" s="79"/>
-      <c r="L35" s="80"/>
-      <c r="M35" s="81"/>
-      <c r="N35" s="81"/>
-      <c r="O35" s="81"/>
-      <c r="P35" s="82"/>
-      <c r="Q35" s="80"/>
-      <c r="R35" s="81"/>
-      <c r="S35" s="81"/>
-      <c r="T35" s="81"/>
-      <c r="U35" s="81"/>
-      <c r="V35" s="81"/>
-      <c r="W35" s="81"/>
-      <c r="X35" s="81"/>
-      <c r="Y35" s="81"/>
-      <c r="Z35" s="81"/>
-      <c r="AA35" s="81"/>
-      <c r="AB35" s="81"/>
-      <c r="AC35" s="81"/>
-      <c r="AD35" s="81"/>
-      <c r="AE35" s="81"/>
-      <c r="AF35" s="81"/>
-      <c r="AG35" s="81"/>
-      <c r="AH35" s="81"/>
-      <c r="AI35" s="81"/>
-      <c r="AJ35" s="81"/>
-      <c r="AK35" s="81"/>
-      <c r="AL35" s="82"/>
-      <c r="AM35" s="80"/>
-      <c r="AN35" s="81"/>
-      <c r="AO35" s="81"/>
-      <c r="AP35" s="81"/>
-      <c r="AQ35" s="81"/>
-      <c r="AR35" s="81"/>
-      <c r="AS35" s="81"/>
-      <c r="AT35" s="81"/>
-      <c r="AU35" s="81"/>
-      <c r="AV35" s="81"/>
-      <c r="AW35" s="81"/>
-      <c r="AX35" s="81"/>
-      <c r="AY35" s="81"/>
-      <c r="AZ35" s="82"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="78"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="80"/>
+      <c r="H35" s="81"/>
+      <c r="I35" s="81"/>
+      <c r="J35" s="81"/>
+      <c r="K35" s="82"/>
+      <c r="L35" s="83"/>
+      <c r="M35" s="84"/>
+      <c r="N35" s="84"/>
+      <c r="O35" s="84"/>
+      <c r="P35" s="85"/>
+      <c r="Q35" s="83"/>
+      <c r="R35" s="84"/>
+      <c r="S35" s="84"/>
+      <c r="T35" s="84"/>
+      <c r="U35" s="84"/>
+      <c r="V35" s="84"/>
+      <c r="W35" s="84"/>
+      <c r="X35" s="84"/>
+      <c r="Y35" s="84"/>
+      <c r="Z35" s="84"/>
+      <c r="AA35" s="84"/>
+      <c r="AB35" s="84"/>
+      <c r="AC35" s="84"/>
+      <c r="AD35" s="84"/>
+      <c r="AE35" s="84"/>
+      <c r="AF35" s="84"/>
+      <c r="AG35" s="84"/>
+      <c r="AH35" s="84"/>
+      <c r="AI35" s="84"/>
+      <c r="AJ35" s="84"/>
+      <c r="AK35" s="84"/>
+      <c r="AL35" s="85"/>
+      <c r="AM35" s="83"/>
+      <c r="AN35" s="84"/>
+      <c r="AO35" s="84"/>
+      <c r="AP35" s="84"/>
+      <c r="AQ35" s="84"/>
+      <c r="AR35" s="84"/>
+      <c r="AS35" s="84"/>
+      <c r="AT35" s="84"/>
+      <c r="AU35" s="84"/>
+      <c r="AV35" s="84"/>
+      <c r="AW35" s="84"/>
+      <c r="AX35" s="84"/>
+      <c r="AY35" s="84"/>
+      <c r="AZ35" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="140">
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="Q8:AL8"/>
+    <mergeCell ref="AM8:AZ8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="Q9:AL9"/>
+    <mergeCell ref="AM9:AZ9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="Q10:AL10"/>
+    <mergeCell ref="AM10:AZ10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="Q11:AL11"/>
+    <mergeCell ref="AM11:AZ11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="Q12:AL12"/>
+    <mergeCell ref="AM12:AZ12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="Q13:AL13"/>
+    <mergeCell ref="AM13:AZ13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="Q14:AL14"/>
+    <mergeCell ref="AM14:AZ14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="Q15:AL15"/>
+    <mergeCell ref="AM15:AZ15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="Q16:AL16"/>
+    <mergeCell ref="AM16:AZ16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="Q17:AL17"/>
+    <mergeCell ref="AM17:AZ17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="Q18:AL18"/>
+    <mergeCell ref="AM18:AZ18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="L19:P19"/>
+    <mergeCell ref="Q19:AL19"/>
+    <mergeCell ref="AM19:AZ19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="Q20:AL20"/>
+    <mergeCell ref="AM20:AZ20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="L21:P21"/>
+    <mergeCell ref="Q21:AL21"/>
+    <mergeCell ref="AM21:AZ21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="Q22:AL22"/>
+    <mergeCell ref="AM22:AZ22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="L23:P23"/>
+    <mergeCell ref="Q23:AL23"/>
+    <mergeCell ref="AM23:AZ23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="L24:P24"/>
+    <mergeCell ref="Q24:AL24"/>
+    <mergeCell ref="AM24:AZ24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="L25:P25"/>
+    <mergeCell ref="Q25:AL25"/>
+    <mergeCell ref="AM25:AZ25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="L26:P26"/>
+    <mergeCell ref="Q26:AL26"/>
+    <mergeCell ref="AM26:AZ26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="L27:P27"/>
+    <mergeCell ref="Q27:AL27"/>
+    <mergeCell ref="AM27:AZ27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="L28:P28"/>
+    <mergeCell ref="Q28:AL28"/>
+    <mergeCell ref="AM28:AZ28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="Q29:AL29"/>
+    <mergeCell ref="AM29:AZ29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="Q30:AL30"/>
+    <mergeCell ref="AM30:AZ30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="L31:P31"/>
+    <mergeCell ref="Q31:AL31"/>
+    <mergeCell ref="AM31:AZ31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="L32:P32"/>
+    <mergeCell ref="Q32:AL32"/>
+    <mergeCell ref="AM32:AZ32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:K33"/>
+    <mergeCell ref="L33:P33"/>
+    <mergeCell ref="Q33:AL33"/>
+    <mergeCell ref="AM33:AZ33"/>
     <mergeCell ref="C34:F34"/>
     <mergeCell ref="G34:K34"/>
     <mergeCell ref="L34:P34"/>
@@ -4242,136 +4373,6 @@
     <mergeCell ref="L35:P35"/>
     <mergeCell ref="Q35:AL35"/>
     <mergeCell ref="AM35:AZ35"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="L32:P32"/>
-    <mergeCell ref="Q32:AL32"/>
-    <mergeCell ref="AM32:AZ32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:K33"/>
-    <mergeCell ref="L33:P33"/>
-    <mergeCell ref="Q33:AL33"/>
-    <mergeCell ref="AM33:AZ33"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="L30:P30"/>
-    <mergeCell ref="Q30:AL30"/>
-    <mergeCell ref="AM30:AZ30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="L31:P31"/>
-    <mergeCell ref="Q31:AL31"/>
-    <mergeCell ref="AM31:AZ31"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="L28:P28"/>
-    <mergeCell ref="Q28:AL28"/>
-    <mergeCell ref="AM28:AZ28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="L29:P29"/>
-    <mergeCell ref="Q29:AL29"/>
-    <mergeCell ref="AM29:AZ29"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="L26:P26"/>
-    <mergeCell ref="Q26:AL26"/>
-    <mergeCell ref="AM26:AZ26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="L27:P27"/>
-    <mergeCell ref="Q27:AL27"/>
-    <mergeCell ref="AM27:AZ27"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="L24:P24"/>
-    <mergeCell ref="Q24:AL24"/>
-    <mergeCell ref="AM24:AZ24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="L25:P25"/>
-    <mergeCell ref="Q25:AL25"/>
-    <mergeCell ref="AM25:AZ25"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="Q22:AL22"/>
-    <mergeCell ref="AM22:AZ22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="L23:P23"/>
-    <mergeCell ref="Q23:AL23"/>
-    <mergeCell ref="AM23:AZ23"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="Q20:AL20"/>
-    <mergeCell ref="AM20:AZ20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="L21:P21"/>
-    <mergeCell ref="Q21:AL21"/>
-    <mergeCell ref="AM21:AZ21"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="Q18:AL18"/>
-    <mergeCell ref="AM18:AZ18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="L19:P19"/>
-    <mergeCell ref="Q19:AL19"/>
-    <mergeCell ref="AM19:AZ19"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="Q16:AL16"/>
-    <mergeCell ref="AM16:AZ16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="Q17:AL17"/>
-    <mergeCell ref="AM17:AZ17"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="Q14:AL14"/>
-    <mergeCell ref="AM14:AZ14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="Q15:AL15"/>
-    <mergeCell ref="AM15:AZ15"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="Q12:AL12"/>
-    <mergeCell ref="AM12:AZ12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="Q13:AL13"/>
-    <mergeCell ref="AM13:AZ13"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="Q10:AL10"/>
-    <mergeCell ref="AM10:AZ10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="Q11:AL11"/>
-    <mergeCell ref="AM11:AZ11"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="Q8:AL8"/>
-    <mergeCell ref="AM8:AZ8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="Q9:AL9"/>
-    <mergeCell ref="AM9:AZ9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4385,18 +4386,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9307939-537D-9F44-B482-1E22BD0105F1}">
   <dimension ref="A1:BA75"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AF29" sqref="AF29"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="34" width="3.28515625" style="13"/>
-    <col min="35" max="35" width="3.28515625" style="13" customWidth="1"/>
-    <col min="36" max="16384" width="3.28515625" style="13"/>
+    <col min="1" max="34" width="3.33203125" style="13"/>
+    <col min="35" max="35" width="3.33203125" style="13" customWidth="1"/>
+    <col min="36" max="16384" width="3.33203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" customFormat="1" ht="12">
+    <row r="1" spans="1:53" customFormat="1" ht="15">
       <c r="A1" s="32"/>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -4448,7 +4447,7 @@
       <c r="AW1" s="33"/>
       <c r="AX1" s="33"/>
     </row>
-    <row r="2" spans="1:53" customFormat="1" ht="12">
+    <row r="2" spans="1:53" customFormat="1" ht="15">
       <c r="A2" s="34"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -4500,7 +4499,7 @@
       <c r="AW2" s="35"/>
       <c r="AX2" s="35"/>
     </row>
-    <row r="3" spans="1:53" customFormat="1" ht="12">
+    <row r="3" spans="1:53" customFormat="1" ht="15">
       <c r="A3" s="34"/>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
@@ -4552,7 +4551,7 @@
       <c r="AW3" s="35"/>
       <c r="AX3" s="35"/>
     </row>
-    <row r="4" spans="1:53" customFormat="1" ht="12">
+    <row r="4" spans="1:53" customFormat="1" ht="15">
       <c r="A4" s="34"/>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -4604,7 +4603,7 @@
       <c r="AW4" s="35"/>
       <c r="AX4" s="35"/>
     </row>
-    <row r="5" spans="1:53" customFormat="1" ht="12">
+    <row r="5" spans="1:53" customFormat="1" ht="15">
       <c r="A5" s="34" t="s">
         <v>15</v>
       </c>
@@ -6085,7 +6084,7 @@
       <c r="AW32" s="20"/>
       <c r="AX32" s="20"/>
     </row>
-    <row r="33" spans="1:50" ht="25.5">
+    <row r="33" spans="1:50" ht="25">
       <c r="A33" s="36"/>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
@@ -7422,7 +7421,7 @@
       </c>
       <c r="C58" s="40"/>
       <c r="D58" s="38" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E58" s="39"/>
       <c r="F58" s="39"/>
@@ -7672,7 +7671,7 @@
       <c r="Q62" s="39"/>
       <c r="R62" s="40"/>
       <c r="S62" s="92" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T62" s="93"/>
       <c r="U62" s="93"/>
@@ -7713,7 +7712,7 @@
       </c>
       <c r="C63" s="40"/>
       <c r="D63" s="38" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E63" s="39"/>
       <c r="F63" s="39"/>
@@ -7732,7 +7731,7 @@
       <c r="Q63" s="47"/>
       <c r="R63" s="48"/>
       <c r="S63" s="38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T63" s="39"/>
       <c r="U63" s="39"/>
@@ -7922,7 +7921,7 @@
       <c r="AW66" s="39"/>
       <c r="AX66" s="39"/>
     </row>
-    <row r="67" spans="1:50" ht="14.25">
+    <row r="67" spans="1:50">
       <c r="A67" s="29"/>
       <c r="B67" s="29"/>
       <c r="C67" s="29"/>
@@ -7932,37 +7931,37 @@
       <c r="B68" s="29"/>
       <c r="C68" s="29"/>
     </row>
-    <row r="69" spans="1:50" ht="14.25">
+    <row r="69" spans="1:50">
       <c r="A69" s="27"/>
       <c r="B69" s="27"/>
       <c r="C69" s="28"/>
     </row>
-    <row r="70" spans="1:50" ht="14.25">
+    <row r="70" spans="1:50">
       <c r="A70" s="27"/>
       <c r="B70" s="28"/>
       <c r="C70" s="28"/>
     </row>
-    <row r="71" spans="1:50" ht="14.25">
+    <row r="71" spans="1:50">
       <c r="A71" s="27"/>
       <c r="B71" s="30"/>
       <c r="C71" s="28"/>
     </row>
-    <row r="72" spans="1:50" ht="14.25">
+    <row r="72" spans="1:50">
       <c r="A72" s="27"/>
       <c r="B72" s="31"/>
       <c r="C72" s="28"/>
     </row>
-    <row r="73" spans="1:50" ht="14.25">
+    <row r="73" spans="1:50">
       <c r="A73" s="27"/>
       <c r="B73" s="28"/>
       <c r="C73" s="28"/>
     </row>
-    <row r="74" spans="1:50" ht="14.25">
+    <row r="74" spans="1:50">
       <c r="A74" s="27"/>
       <c r="B74" s="30"/>
       <c r="C74" s="28"/>
     </row>
-    <row r="75" spans="1:50" ht="14.25">
+    <row r="75" spans="1:50">
       <c r="A75" s="27"/>
       <c r="B75" s="31"/>
       <c r="C75" s="28"/>
@@ -7994,7 +7993,7 @@
       <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
